--- a/game_map_1.xlsx
+++ b/game_map_1.xlsx
@@ -24,7 +24,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -39,7 +39,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFD966"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF548235"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -52,6 +64,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF222222"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC2B280"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -68,12 +86,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,782 +401,782 @@
     <row r="1" spans="1:50">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
       <c r="AF1" s="1"/>
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
-      <c r="AL1" s="1"/>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
-      <c r="AP1" s="1"/>
-      <c r="AQ1" s="1"/>
-      <c r="AR1" s="1"/>
-      <c r="AS1" s="1"/>
-      <c r="AT1" s="1"/>
-      <c r="AU1" s="1"/>
-      <c r="AV1" s="1"/>
-      <c r="AW1" s="3"/>
-      <c r="AX1" s="3"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AV1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="2"/>
     </row>
     <row r="2" spans="1:50">
       <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="3"/>
       <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
+      <c r="U2" s="4"/>
       <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
       <c r="AG2" s="1"/>
       <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
-      <c r="AJ2" s="1"/>
-      <c r="AK2" s="1"/>
-      <c r="AL2" s="3"/>
-      <c r="AM2" s="3"/>
-      <c r="AN2" s="1"/>
-      <c r="AO2" s="1"/>
-      <c r="AP2" s="1"/>
-      <c r="AQ2" s="1"/>
-      <c r="AR2" s="1"/>
-      <c r="AS2" s="1"/>
-      <c r="AT2" s="1"/>
-      <c r="AU2" s="1"/>
-      <c r="AV2" s="1"/>
-      <c r="AW2" s="3"/>
-      <c r="AX2" s="1"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="2"/>
+      <c r="AQ2" s="2"/>
+      <c r="AR2" s="2"/>
+      <c r="AS2" s="2"/>
+      <c r="AT2" s="2"/>
+      <c r="AU2" s="2"/>
+      <c r="AV2" s="2"/>
+      <c r="AW2" s="2"/>
+      <c r="AX2" s="2"/>
     </row>
     <row r="3" spans="1:50">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="1"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="4"/>
       <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="1"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
       <c r="AH3" s="1"/>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="1"/>
-      <c r="AL3" s="3"/>
-      <c r="AM3" s="1"/>
-      <c r="AN3" s="1"/>
-      <c r="AO3" s="1"/>
-      <c r="AP3" s="1"/>
-      <c r="AQ3" s="1"/>
-      <c r="AR3" s="1"/>
-      <c r="AS3" s="1"/>
-      <c r="AT3" s="1"/>
-      <c r="AU3" s="1"/>
-      <c r="AV3" s="1"/>
-      <c r="AW3" s="3"/>
-      <c r="AX3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AO3" s="2"/>
+      <c r="AP3" s="2"/>
+      <c r="AQ3" s="2"/>
+      <c r="AR3" s="2"/>
+      <c r="AS3" s="2"/>
+      <c r="AT3" s="2"/>
+      <c r="AU3" s="2"/>
+      <c r="AV3" s="2"/>
+      <c r="AW3" s="2"/>
+      <c r="AX3" s="2"/>
     </row>
     <row r="4" spans="1:50">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
-      <c r="AG4" s="1"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
       <c r="AH4" s="1"/>
-      <c r="AI4" s="3"/>
-      <c r="AJ4" s="3"/>
-      <c r="AK4" s="1"/>
-      <c r="AL4" s="3"/>
-      <c r="AM4" s="1"/>
-      <c r="AN4" s="1"/>
-      <c r="AO4" s="3"/>
-      <c r="AP4" s="3"/>
-      <c r="AQ4" s="1"/>
-      <c r="AR4" s="1"/>
-      <c r="AS4" s="1"/>
-      <c r="AT4" s="1"/>
-      <c r="AU4" s="1"/>
-      <c r="AV4" s="3"/>
-      <c r="AW4" s="3"/>
-      <c r="AX4" s="3"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="2"/>
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="2"/>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="2"/>
+      <c r="AU4" s="2"/>
+      <c r="AV4" s="2"/>
+      <c r="AW4" s="2"/>
+      <c r="AX4" s="2"/>
     </row>
     <row r="5" spans="1:50">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
-      <c r="AG5" s="1"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
       <c r="AJ5" s="1"/>
-      <c r="AK5" s="1"/>
-      <c r="AL5" s="1"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="2"/>
       <c r="AM5" s="1"/>
       <c r="AN5" s="1"/>
-      <c r="AO5" s="1"/>
-      <c r="AP5" s="1"/>
-      <c r="AQ5" s="1"/>
-      <c r="AR5" s="1"/>
-      <c r="AS5" s="1"/>
-      <c r="AT5" s="1"/>
-      <c r="AU5" s="1"/>
-      <c r="AV5" s="1"/>
-      <c r="AW5" s="1"/>
-      <c r="AX5" s="1"/>
+      <c r="AO5" s="2"/>
+      <c r="AP5" s="2"/>
+      <c r="AQ5" s="2"/>
+      <c r="AR5" s="2"/>
+      <c r="AS5" s="2"/>
+      <c r="AT5" s="2"/>
+      <c r="AU5" s="2"/>
+      <c r="AV5" s="2"/>
+      <c r="AW5" s="2"/>
+      <c r="AX5" s="2"/>
     </row>
     <row r="6" spans="1:50">
       <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
-      <c r="AG6" s="4"/>
-      <c r="AH6" s="4"/>
-      <c r="AI6" s="4"/>
-      <c r="AJ6" s="4"/>
-      <c r="AK6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="5"/>
       <c r="AL6" s="1"/>
       <c r="AM6" s="1"/>
       <c r="AN6" s="1"/>
       <c r="AO6" s="1"/>
-      <c r="AP6" s="1"/>
-      <c r="AQ6" s="1"/>
-      <c r="AR6" s="4"/>
-      <c r="AS6" s="4"/>
-      <c r="AT6" s="4"/>
-      <c r="AU6" s="4"/>
-      <c r="AV6" s="1"/>
-      <c r="AW6" s="3"/>
+      <c r="AP6" s="2"/>
+      <c r="AQ6" s="2"/>
+      <c r="AR6" s="2"/>
+      <c r="AS6" s="2"/>
+      <c r="AT6" s="2"/>
+      <c r="AU6" s="2"/>
+      <c r="AV6" s="2"/>
+      <c r="AW6" s="2"/>
       <c r="AX6" s="1"/>
     </row>
     <row r="7" spans="1:50">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
-      <c r="AG7" s="4"/>
-      <c r="AH7" s="4"/>
-      <c r="AI7" s="4"/>
-      <c r="AJ7" s="4"/>
-      <c r="AK7" s="4"/>
-      <c r="AL7" s="4"/>
-      <c r="AM7" s="4"/>
-      <c r="AN7" s="4"/>
-      <c r="AO7" s="4"/>
-      <c r="AP7" s="4"/>
-      <c r="AQ7" s="4"/>
-      <c r="AR7" s="4"/>
-      <c r="AS7" s="4"/>
-      <c r="AT7" s="4"/>
-      <c r="AU7" s="4"/>
-      <c r="AV7" s="1"/>
-      <c r="AW7" s="1"/>
-      <c r="AX7" s="3"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="1"/>
+      <c r="AR7" s="6"/>
+      <c r="AS7" s="6"/>
+      <c r="AT7" s="6"/>
+      <c r="AU7" s="2"/>
+      <c r="AV7" s="2"/>
+      <c r="AW7" s="5"/>
+      <c r="AX7" s="1"/>
     </row>
     <row r="8" spans="1:50">
       <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="1"/>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="4"/>
-      <c r="AJ8" s="4"/>
-      <c r="AK8" s="4"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
       <c r="AL8" s="4"/>
-      <c r="AM8" s="4"/>
-      <c r="AN8" s="4"/>
-      <c r="AO8" s="4"/>
-      <c r="AP8" s="4"/>
-      <c r="AQ8" s="4"/>
-      <c r="AR8" s="4"/>
-      <c r="AS8" s="4"/>
-      <c r="AT8" s="4"/>
-      <c r="AU8" s="4"/>
-      <c r="AV8" s="1"/>
-      <c r="AW8" s="1"/>
-      <c r="AX8" s="3"/>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="1"/>
+      <c r="AO8" s="1"/>
+      <c r="AP8" s="1"/>
+      <c r="AQ8" s="1"/>
+      <c r="AR8" s="6"/>
+      <c r="AS8" s="6"/>
+      <c r="AT8" s="6"/>
+      <c r="AU8" s="2"/>
+      <c r="AV8" s="2"/>
+      <c r="AW8" s="2"/>
+      <c r="AX8" s="1"/>
     </row>
     <row r="9" spans="1:50">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
-      <c r="AG9" s="4"/>
-      <c r="AH9" s="4"/>
-      <c r="AI9" s="4"/>
-      <c r="AJ9" s="4"/>
-      <c r="AK9" s="4"/>
-      <c r="AL9" s="4"/>
-      <c r="AM9" s="4"/>
-      <c r="AN9" s="4"/>
-      <c r="AO9" s="4"/>
-      <c r="AP9" s="4"/>
-      <c r="AQ9" s="4"/>
-      <c r="AR9" s="4"/>
-      <c r="AS9" s="4"/>
-      <c r="AT9" s="4"/>
-      <c r="AU9" s="4"/>
-      <c r="AV9" s="1"/>
-      <c r="AW9" s="1"/>
-      <c r="AX9" s="3"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="6"/>
+      <c r="AG9" s="6"/>
+      <c r="AH9" s="6"/>
+      <c r="AI9" s="6"/>
+      <c r="AJ9" s="6"/>
+      <c r="AK9" s="6"/>
+      <c r="AL9" s="6"/>
+      <c r="AM9" s="6"/>
+      <c r="AN9" s="6"/>
+      <c r="AO9" s="6"/>
+      <c r="AP9" s="6"/>
+      <c r="AQ9" s="6"/>
+      <c r="AR9" s="6"/>
+      <c r="AS9" s="6"/>
+      <c r="AT9" s="6"/>
+      <c r="AU9" s="2"/>
+      <c r="AV9" s="2"/>
+      <c r="AW9" s="2"/>
+      <c r="AX9" s="2"/>
     </row>
     <row r="10" spans="1:50">
-      <c r="A10" s="2"/>
+      <c r="A10" s="3"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
       <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="5"/>
       <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
+      <c r="AB10" s="2"/>
       <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
+      <c r="AD10" s="4"/>
       <c r="AE10" s="1"/>
-      <c r="AF10" s="3"/>
-      <c r="AG10" s="3"/>
-      <c r="AH10" s="4"/>
-      <c r="AI10" s="4"/>
-      <c r="AJ10" s="4"/>
-      <c r="AK10" s="4"/>
-      <c r="AL10" s="4"/>
-      <c r="AM10" s="4"/>
-      <c r="AN10" s="4"/>
-      <c r="AO10" s="4"/>
-      <c r="AP10" s="4"/>
-      <c r="AQ10" s="4"/>
-      <c r="AR10" s="4"/>
-      <c r="AS10" s="4"/>
-      <c r="AT10" s="4"/>
-      <c r="AU10" s="1"/>
-      <c r="AV10" s="3"/>
-      <c r="AW10" s="3"/>
-      <c r="AX10" s="3"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="6"/>
+      <c r="AI10" s="6"/>
+      <c r="AJ10" s="6"/>
+      <c r="AK10" s="6"/>
+      <c r="AL10" s="6"/>
+      <c r="AM10" s="6"/>
+      <c r="AN10" s="6"/>
+      <c r="AO10" s="6"/>
+      <c r="AP10" s="6"/>
+      <c r="AQ10" s="6"/>
+      <c r="AR10" s="6"/>
+      <c r="AS10" s="1"/>
+      <c r="AT10" s="1"/>
+      <c r="AU10" s="2"/>
+      <c r="AV10" s="2"/>
+      <c r="AW10" s="2"/>
+      <c r="AX10" s="2"/>
     </row>
     <row r="11" spans="1:50">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
       <c r="AE11" s="1"/>
-      <c r="AF11" s="3"/>
+      <c r="AF11" s="4"/>
       <c r="AG11" s="1"/>
-      <c r="AH11" s="4"/>
-      <c r="AI11" s="4"/>
-      <c r="AJ11" s="4"/>
-      <c r="AK11" s="4"/>
-      <c r="AL11" s="4"/>
-      <c r="AM11" s="4"/>
-      <c r="AN11" s="4"/>
-      <c r="AO11" s="4"/>
-      <c r="AP11" s="4"/>
-      <c r="AQ11" s="4"/>
-      <c r="AR11" s="4"/>
-      <c r="AS11" s="4"/>
-      <c r="AT11" s="4"/>
-      <c r="AU11" s="1"/>
-      <c r="AV11" s="1"/>
-      <c r="AW11" s="1"/>
-      <c r="AX11" s="3"/>
+      <c r="AH11" s="6"/>
+      <c r="AI11" s="6"/>
+      <c r="AJ11" s="6"/>
+      <c r="AK11" s="6"/>
+      <c r="AL11" s="6"/>
+      <c r="AM11" s="6"/>
+      <c r="AN11" s="6"/>
+      <c r="AO11" s="6"/>
+      <c r="AP11" s="6"/>
+      <c r="AQ11" s="6"/>
+      <c r="AR11" s="6"/>
+      <c r="AS11" s="5"/>
+      <c r="AT11" s="1"/>
+      <c r="AU11" s="2"/>
+      <c r="AV11" s="2"/>
+      <c r="AW11" s="2"/>
+      <c r="AX11" s="2"/>
     </row>
     <row r="12" spans="1:50">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
       <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="1"/>
-      <c r="AF12" s="1"/>
-      <c r="AG12" s="1"/>
-      <c r="AH12" s="4"/>
-      <c r="AI12" s="4"/>
-      <c r="AJ12" s="4"/>
-      <c r="AK12" s="4"/>
-      <c r="AL12" s="4"/>
-      <c r="AM12" s="4"/>
-      <c r="AN12" s="4"/>
-      <c r="AO12" s="4"/>
-      <c r="AP12" s="4"/>
-      <c r="AQ12" s="4"/>
-      <c r="AR12" s="4"/>
-      <c r="AS12" s="4"/>
-      <c r="AT12" s="4"/>
-      <c r="AU12" s="1"/>
-      <c r="AV12" s="1"/>
-      <c r="AW12" s="1"/>
-      <c r="AX12" s="3"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="6"/>
+      <c r="AI12" s="6"/>
+      <c r="AJ12" s="6"/>
+      <c r="AK12" s="6"/>
+      <c r="AL12" s="6"/>
+      <c r="AM12" s="6"/>
+      <c r="AN12" s="6"/>
+      <c r="AO12" s="6"/>
+      <c r="AP12" s="6"/>
+      <c r="AQ12" s="6"/>
+      <c r="AR12" s="6"/>
+      <c r="AS12" s="5"/>
+      <c r="AT12" s="1"/>
+      <c r="AU12" s="2"/>
+      <c r="AV12" s="2"/>
+      <c r="AW12" s="2"/>
+      <c r="AX12" s="2"/>
     </row>
     <row r="13" spans="1:50">
-      <c r="A13" s="2"/>
+      <c r="A13" s="3"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="1"/>
-      <c r="AH13" s="4"/>
-      <c r="AI13" s="4"/>
-      <c r="AJ13" s="4"/>
-      <c r="AK13" s="4"/>
-      <c r="AL13" s="4"/>
-      <c r="AM13" s="4"/>
-      <c r="AN13" s="4"/>
-      <c r="AO13" s="4"/>
-      <c r="AP13" s="4"/>
-      <c r="AQ13" s="4"/>
-      <c r="AR13" s="4"/>
-      <c r="AS13" s="4"/>
-      <c r="AT13" s="4"/>
-      <c r="AU13" s="1"/>
-      <c r="AV13" s="1"/>
-      <c r="AW13" s="1"/>
-      <c r="AX13" s="1"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="6"/>
+      <c r="AK13" s="6"/>
+      <c r="AL13" s="6"/>
+      <c r="AM13" s="6"/>
+      <c r="AN13" s="6"/>
+      <c r="AO13" s="6"/>
+      <c r="AP13" s="6"/>
+      <c r="AQ13" s="6"/>
+      <c r="AR13" s="6"/>
+      <c r="AS13" s="1"/>
+      <c r="AT13" s="5"/>
+      <c r="AU13" s="2"/>
+      <c r="AV13" s="2"/>
+      <c r="AW13" s="2"/>
+      <c r="AX13" s="2"/>
     </row>
     <row r="14" spans="1:50">
       <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="1"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="4"/>
       <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
+      <c r="V14" s="4"/>
       <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
+      <c r="X14" s="4"/>
       <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
+      <c r="Z14" s="4"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
-      <c r="AE14" s="1"/>
-      <c r="AF14" s="3"/>
-      <c r="AG14" s="1"/>
-      <c r="AH14" s="4"/>
-      <c r="AI14" s="4"/>
-      <c r="AJ14" s="4"/>
-      <c r="AK14" s="4"/>
-      <c r="AL14" s="4"/>
-      <c r="AM14" s="4"/>
-      <c r="AN14" s="4"/>
-      <c r="AO14" s="4"/>
-      <c r="AP14" s="4"/>
-      <c r="AQ14" s="4"/>
-      <c r="AR14" s="4"/>
-      <c r="AS14" s="4"/>
-      <c r="AT14" s="4"/>
-      <c r="AU14" s="1"/>
-      <c r="AV14" s="1"/>
-      <c r="AW14" s="1"/>
-      <c r="AX14" s="1"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="6"/>
+      <c r="AI14" s="6"/>
+      <c r="AJ14" s="6"/>
+      <c r="AK14" s="6"/>
+      <c r="AL14" s="6"/>
+      <c r="AM14" s="6"/>
+      <c r="AN14" s="6"/>
+      <c r="AO14" s="6"/>
+      <c r="AP14" s="6"/>
+      <c r="AQ14" s="6"/>
+      <c r="AR14" s="6"/>
+      <c r="AS14" s="1"/>
+      <c r="AT14" s="1"/>
+      <c r="AU14" s="2"/>
+      <c r="AV14" s="2"/>
+      <c r="AW14" s="2"/>
+      <c r="AX14" s="2"/>
     </row>
     <row r="15" spans="1:50">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="1"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="2"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
       <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
+      <c r="T15" s="4"/>
       <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
       <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
-      <c r="AE15" s="1"/>
-      <c r="AF15" s="1"/>
-      <c r="AG15" s="1"/>
-      <c r="AH15" s="4"/>
-      <c r="AI15" s="4"/>
-      <c r="AJ15" s="4"/>
-      <c r="AK15" s="4"/>
-      <c r="AL15" s="4"/>
-      <c r="AM15" s="4"/>
-      <c r="AN15" s="4"/>
-      <c r="AO15" s="4"/>
-      <c r="AP15" s="4"/>
-      <c r="AQ15" s="4"/>
-      <c r="AR15" s="4"/>
-      <c r="AS15" s="4"/>
-      <c r="AT15" s="4"/>
-      <c r="AU15" s="1"/>
-      <c r="AV15" s="1"/>
-      <c r="AW15" s="1"/>
-      <c r="AX15" s="1"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="6"/>
+      <c r="AI15" s="6"/>
+      <c r="AJ15" s="6"/>
+      <c r="AK15" s="6"/>
+      <c r="AL15" s="6"/>
+      <c r="AM15" s="6"/>
+      <c r="AN15" s="6"/>
+      <c r="AO15" s="6"/>
+      <c r="AP15" s="6"/>
+      <c r="AQ15" s="6"/>
+      <c r="AR15" s="6"/>
+      <c r="AS15" s="1"/>
+      <c r="AT15" s="1"/>
+      <c r="AU15" s="2"/>
+      <c r="AV15" s="2"/>
+      <c r="AW15" s="2"/>
+      <c r="AX15" s="2"/>
     </row>
     <row r="16" spans="1:50">
       <c r="A16" s="1"/>
@@ -1163,51 +1184,51 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
+      <c r="V16" s="4"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
+      <c r="Y16" s="4"/>
       <c r="Z16" s="1"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
-      <c r="AD16" s="3"/>
-      <c r="AE16" s="1"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
       <c r="AF16" s="1"/>
-      <c r="AG16" s="1"/>
-      <c r="AH16" s="4"/>
-      <c r="AI16" s="4"/>
-      <c r="AJ16" s="4"/>
-      <c r="AK16" s="4"/>
-      <c r="AL16" s="4"/>
-      <c r="AM16" s="4"/>
-      <c r="AN16" s="4"/>
-      <c r="AO16" s="4"/>
-      <c r="AP16" s="4"/>
-      <c r="AQ16" s="4"/>
-      <c r="AR16" s="4"/>
-      <c r="AS16" s="4"/>
-      <c r="AT16" s="4"/>
-      <c r="AU16" s="1"/>
-      <c r="AV16" s="1"/>
-      <c r="AW16" s="1"/>
-      <c r="AX16" s="1"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="6"/>
+      <c r="AI16" s="6"/>
+      <c r="AJ16" s="6"/>
+      <c r="AK16" s="6"/>
+      <c r="AL16" s="6"/>
+      <c r="AM16" s="6"/>
+      <c r="AN16" s="6"/>
+      <c r="AO16" s="6"/>
+      <c r="AP16" s="6"/>
+      <c r="AQ16" s="6"/>
+      <c r="AR16" s="6"/>
+      <c r="AS16" s="1"/>
+      <c r="AT16" s="1"/>
+      <c r="AU16" s="2"/>
+      <c r="AV16" s="2"/>
+      <c r="AW16" s="2"/>
+      <c r="AX16" s="2"/>
     </row>
     <row r="17" spans="1:50">
       <c r="A17" s="1"/>
@@ -1217,49 +1238,49 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="2"/>
+      <c r="H17" s="3"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
+      <c r="T17" s="4"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="4"/>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
-      <c r="AG17" s="4"/>
-      <c r="AH17" s="4"/>
-      <c r="AI17" s="4"/>
-      <c r="AJ17" s="4"/>
-      <c r="AK17" s="4"/>
-      <c r="AL17" s="4"/>
-      <c r="AM17" s="4"/>
-      <c r="AN17" s="4"/>
-      <c r="AO17" s="4"/>
-      <c r="AP17" s="4"/>
-      <c r="AQ17" s="4"/>
-      <c r="AR17" s="4"/>
-      <c r="AS17" s="4"/>
-      <c r="AT17" s="4"/>
-      <c r="AU17" s="4"/>
-      <c r="AV17" s="1"/>
-      <c r="AW17" s="1"/>
-      <c r="AX17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="6"/>
+      <c r="AI17" s="6"/>
+      <c r="AJ17" s="6"/>
+      <c r="AK17" s="6"/>
+      <c r="AL17" s="6"/>
+      <c r="AM17" s="6"/>
+      <c r="AN17" s="6"/>
+      <c r="AO17" s="6"/>
+      <c r="AP17" s="6"/>
+      <c r="AQ17" s="6"/>
+      <c r="AR17" s="6"/>
+      <c r="AS17" s="1"/>
+      <c r="AT17" s="1"/>
+      <c r="AU17" s="2"/>
+      <c r="AV17" s="2"/>
+      <c r="AW17" s="2"/>
+      <c r="AX17" s="2"/>
     </row>
     <row r="18" spans="1:50">
       <c r="A18" s="1"/>
@@ -1273,11 +1294,11 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
@@ -1292,25 +1313,25 @@
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
-      <c r="AE18" s="1"/>
-      <c r="AF18" s="1"/>
-      <c r="AG18" s="4"/>
-      <c r="AH18" s="4"/>
-      <c r="AI18" s="4"/>
-      <c r="AJ18" s="4"/>
-      <c r="AK18" s="4"/>
-      <c r="AL18" s="4"/>
-      <c r="AM18" s="4"/>
-      <c r="AN18" s="4"/>
-      <c r="AO18" s="4"/>
-      <c r="AP18" s="4"/>
-      <c r="AQ18" s="4"/>
-      <c r="AR18" s="4"/>
-      <c r="AS18" s="4"/>
-      <c r="AT18" s="4"/>
-      <c r="AU18" s="4"/>
-      <c r="AV18" s="1"/>
-      <c r="AW18" s="1"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="6"/>
+      <c r="AG18" s="6"/>
+      <c r="AH18" s="6"/>
+      <c r="AI18" s="6"/>
+      <c r="AJ18" s="6"/>
+      <c r="AK18" s="6"/>
+      <c r="AL18" s="6"/>
+      <c r="AM18" s="6"/>
+      <c r="AN18" s="6"/>
+      <c r="AO18" s="6"/>
+      <c r="AP18" s="6"/>
+      <c r="AQ18" s="6"/>
+      <c r="AR18" s="6"/>
+      <c r="AS18" s="6"/>
+      <c r="AT18" s="6"/>
+      <c r="AU18" s="2"/>
+      <c r="AV18" s="2"/>
+      <c r="AW18" s="2"/>
       <c r="AX18" s="1"/>
     </row>
     <row r="19" spans="1:50">
@@ -1324,12 +1345,12 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
@@ -1340,30 +1361,30 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="4"/>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
-      <c r="AF19" s="1"/>
-      <c r="AG19" s="4"/>
-      <c r="AH19" s="4"/>
-      <c r="AI19" s="4"/>
-      <c r="AJ19" s="4"/>
-      <c r="AK19" s="4"/>
-      <c r="AL19" s="4"/>
-      <c r="AM19" s="4"/>
-      <c r="AN19" s="4"/>
-      <c r="AO19" s="4"/>
-      <c r="AP19" s="4"/>
-      <c r="AQ19" s="4"/>
-      <c r="AR19" s="4"/>
-      <c r="AS19" s="4"/>
-      <c r="AT19" s="4"/>
-      <c r="AU19" s="4"/>
-      <c r="AV19" s="3"/>
-      <c r="AW19" s="3"/>
-      <c r="AX19" s="3"/>
+      <c r="AF19" s="6"/>
+      <c r="AG19" s="6"/>
+      <c r="AH19" s="6"/>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="1"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="1"/>
+      <c r="AN19" s="1"/>
+      <c r="AO19" s="1"/>
+      <c r="AP19" s="1"/>
+      <c r="AQ19" s="1"/>
+      <c r="AR19" s="6"/>
+      <c r="AS19" s="6"/>
+      <c r="AT19" s="6"/>
+      <c r="AU19" s="2"/>
+      <c r="AV19" s="2"/>
+      <c r="AW19" s="1"/>
+      <c r="AX19" s="1"/>
     </row>
     <row r="20" spans="1:50">
       <c r="A20" s="1"/>
@@ -1375,13 +1396,13 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="1"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
@@ -1392,29 +1413,29 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
-      <c r="AA20" s="3"/>
+      <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
-      <c r="AE20" s="1"/>
-      <c r="AF20" s="1"/>
-      <c r="AG20" s="4"/>
-      <c r="AH20" s="4"/>
-      <c r="AI20" s="4"/>
-      <c r="AJ20" s="4"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="6"/>
+      <c r="AG20" s="6"/>
+      <c r="AH20" s="6"/>
+      <c r="AI20" s="1"/>
+      <c r="AJ20" s="1"/>
       <c r="AK20" s="1"/>
-      <c r="AL20" s="1"/>
+      <c r="AL20" s="5"/>
       <c r="AM20" s="1"/>
       <c r="AN20" s="1"/>
       <c r="AO20" s="1"/>
       <c r="AP20" s="1"/>
       <c r="AQ20" s="1"/>
-      <c r="AR20" s="4"/>
-      <c r="AS20" s="4"/>
-      <c r="AT20" s="4"/>
-      <c r="AU20" s="4"/>
+      <c r="AR20" s="6"/>
+      <c r="AS20" s="6"/>
+      <c r="AT20" s="6"/>
+      <c r="AU20" s="1"/>
       <c r="AV20" s="1"/>
-      <c r="AW20" s="1"/>
+      <c r="AW20" s="5"/>
       <c r="AX20" s="1"/>
     </row>
     <row r="21" spans="1:50">
@@ -1427,13 +1448,13 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="1"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
@@ -1441,24 +1462,24 @@
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
+      <c r="X21" s="4"/>
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
-      <c r="AE21" s="3"/>
-      <c r="AF21" s="1"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="5"/>
       <c r="AG21" s="1"/>
       <c r="AH21" s="1"/>
       <c r="AI21" s="1"/>
       <c r="AJ21" s="1"/>
       <c r="AK21" s="1"/>
-      <c r="AL21" s="3"/>
+      <c r="AL21" s="1"/>
       <c r="AM21" s="1"/>
       <c r="AN21" s="1"/>
-      <c r="AO21" s="1"/>
+      <c r="AO21" s="5"/>
       <c r="AP21" s="1"/>
       <c r="AQ21" s="1"/>
       <c r="AR21" s="1"/>
@@ -1466,8 +1487,8 @@
       <c r="AT21" s="1"/>
       <c r="AU21" s="1"/>
       <c r="AV21" s="1"/>
-      <c r="AW21" s="1"/>
-      <c r="AX21" s="3"/>
+      <c r="AW21" s="5"/>
+      <c r="AX21" s="1"/>
     </row>
     <row r="22" spans="1:50">
       <c r="A22" s="1"/>
@@ -1478,15 +1499,15 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
@@ -1497,29 +1518,29 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
-      <c r="AB22" s="3"/>
+      <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
-      <c r="AE22" s="1"/>
-      <c r="AF22" s="1"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
       <c r="AG22" s="1"/>
-      <c r="AH22" s="1"/>
-      <c r="AI22" s="1"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
       <c r="AJ22" s="1"/>
       <c r="AK22" s="1"/>
-      <c r="AL22" s="3"/>
-      <c r="AM22" s="3"/>
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="1"/>
       <c r="AN22" s="1"/>
-      <c r="AO22" s="1"/>
+      <c r="AO22" s="5"/>
       <c r="AP22" s="1"/>
       <c r="AQ22" s="1"/>
       <c r="AR22" s="1"/>
-      <c r="AS22" s="1"/>
+      <c r="AS22" s="5"/>
       <c r="AT22" s="1"/>
       <c r="AU22" s="1"/>
-      <c r="AV22" s="3"/>
-      <c r="AW22" s="3"/>
-      <c r="AX22" s="3"/>
+      <c r="AV22" s="1"/>
+      <c r="AW22" s="5"/>
+      <c r="AX22" s="5"/>
     </row>
     <row r="23" spans="1:50">
       <c r="A23" s="1"/>
@@ -1529,49 +1550,49 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
       <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
+      <c r="S23" s="4"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="3"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
-      <c r="AC23" s="3"/>
-      <c r="AD23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="5"/>
       <c r="AE23" s="1"/>
-      <c r="AF23" s="3"/>
-      <c r="AG23" s="3"/>
-      <c r="AH23" s="3"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="4"/>
+      <c r="AH23" s="1"/>
       <c r="AI23" s="1"/>
       <c r="AJ23" s="1"/>
       <c r="AK23" s="1"/>
-      <c r="AL23" s="3"/>
-      <c r="AM23" s="3"/>
-      <c r="AN23" s="3"/>
+      <c r="AL23" s="1"/>
+      <c r="AM23" s="1"/>
+      <c r="AN23" s="5"/>
       <c r="AO23" s="1"/>
-      <c r="AP23" s="3"/>
-      <c r="AQ23" s="3"/>
-      <c r="AR23" s="3"/>
+      <c r="AP23" s="1"/>
+      <c r="AQ23" s="1"/>
+      <c r="AR23" s="1"/>
       <c r="AS23" s="1"/>
       <c r="AT23" s="1"/>
       <c r="AU23" s="1"/>
       <c r="AV23" s="1"/>
-      <c r="AW23" s="1"/>
-      <c r="AX23" s="3"/>
+      <c r="AW23" s="5"/>
+      <c r="AX23" s="1"/>
     </row>
     <row r="24" spans="1:50">
       <c r="A24" s="1"/>
@@ -1581,16 +1602,16 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="2"/>
+      <c r="H24" s="3"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="2"/>
+      <c r="J24" s="3"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
@@ -1600,21 +1621,21 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
-      <c r="AA24" s="3"/>
+      <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
-      <c r="AD24" s="1"/>
+      <c r="AD24" s="5"/>
       <c r="AE24" s="1"/>
       <c r="AF24" s="1"/>
-      <c r="AG24" s="1"/>
-      <c r="AH24" s="1"/>
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="4"/>
       <c r="AI24" s="1"/>
       <c r="AJ24" s="1"/>
       <c r="AK24" s="1"/>
       <c r="AL24" s="1"/>
       <c r="AM24" s="1"/>
-      <c r="AN24" s="1"/>
-      <c r="AO24" s="1"/>
+      <c r="AN24" s="5"/>
+      <c r="AO24" s="5"/>
       <c r="AP24" s="1"/>
       <c r="AQ24" s="1"/>
       <c r="AR24" s="1"/>
@@ -1632,41 +1653,41 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="1"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="4"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
       <c r="T25" s="1"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
-      <c r="AC25" s="1"/>
-      <c r="AD25" s="1"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
       <c r="AE25" s="1"/>
-      <c r="AF25" s="3"/>
-      <c r="AG25" s="3"/>
-      <c r="AH25" s="3"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+      <c r="AH25" s="1"/>
       <c r="AI25" s="1"/>
-      <c r="AJ25" s="3"/>
+      <c r="AJ25" s="1"/>
       <c r="AK25" s="1"/>
       <c r="AL25" s="1"/>
-      <c r="AM25" s="1"/>
-      <c r="AN25" s="1"/>
-      <c r="AO25" s="1"/>
+      <c r="AM25" s="5"/>
+      <c r="AN25" s="5"/>
+      <c r="AO25" s="5"/>
       <c r="AP25" s="1"/>
       <c r="AQ25" s="1"/>
       <c r="AR25" s="1"/>
@@ -1684,8 +1705,8 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -1693,14 +1714,14 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-      <c r="W26" s="1"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="4"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
@@ -1720,7 +1741,7 @@
       <c r="AN26" s="1"/>
       <c r="AO26" s="1"/>
       <c r="AP26" s="1"/>
-      <c r="AQ26" s="1"/>
+      <c r="AQ26" s="4"/>
       <c r="AR26" s="1"/>
       <c r="AS26" s="1"/>
       <c r="AT26" s="1"/>
@@ -1736,25 +1757,25 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="2"/>
+      <c r="G27" s="3"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="2"/>
+      <c r="I27" s="3"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
       <c r="R27" s="1"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
+      <c r="Y27" s="4"/>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
@@ -1770,10 +1791,10 @@
       <c r="AL27" s="1"/>
       <c r="AM27" s="1"/>
       <c r="AN27" s="1"/>
-      <c r="AO27" s="1"/>
-      <c r="AP27" s="1"/>
+      <c r="AO27" s="4"/>
+      <c r="AP27" s="4"/>
       <c r="AQ27" s="1"/>
-      <c r="AR27" s="1"/>
+      <c r="AR27" s="4"/>
       <c r="AS27" s="1"/>
       <c r="AT27" s="1"/>
       <c r="AU27" s="1"/>
@@ -1788,25 +1809,25 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
+      <c r="M28" s="4"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
       <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
+      <c r="W28" s="4"/>
       <c r="X28" s="1"/>
-      <c r="Y28" s="1"/>
+      <c r="Y28" s="4"/>
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
@@ -1822,9 +1843,9 @@
       <c r="AL28" s="1"/>
       <c r="AM28" s="1"/>
       <c r="AN28" s="1"/>
-      <c r="AO28" s="1"/>
-      <c r="AP28" s="1"/>
-      <c r="AQ28" s="1"/>
+      <c r="AO28" s="4"/>
+      <c r="AP28" s="4"/>
+      <c r="AQ28" s="4"/>
       <c r="AR28" s="1"/>
       <c r="AS28" s="1"/>
       <c r="AT28" s="1"/>
@@ -1841,26 +1862,26 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
       <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
-      <c r="W29" s="2"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
       <c r="X29" s="1"/>
-      <c r="Y29" s="1"/>
+      <c r="Y29" s="4"/>
       <c r="Z29" s="1"/>
-      <c r="AA29" s="1"/>
+      <c r="AA29" s="4"/>
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
@@ -1873,10 +1894,10 @@
       <c r="AK29" s="1"/>
       <c r="AL29" s="1"/>
       <c r="AM29" s="1"/>
-      <c r="AN29" s="1"/>
-      <c r="AO29" s="1"/>
+      <c r="AN29" s="4"/>
+      <c r="AO29" s="4"/>
       <c r="AP29" s="1"/>
-      <c r="AQ29" s="1"/>
+      <c r="AQ29" s="4"/>
       <c r="AR29" s="1"/>
       <c r="AS29" s="1"/>
       <c r="AT29" s="1"/>
@@ -1893,28 +1914,28 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="2"/>
-      <c r="V30" s="2"/>
-      <c r="W30" s="2"/>
-      <c r="X30" s="2"/>
-      <c r="Y30" s="1"/>
-      <c r="Z30" s="1"/>
-      <c r="AA30" s="2"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
       <c r="AB30" s="1"/>
-      <c r="AC30" s="2"/>
+      <c r="AC30" s="3"/>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
       <c r="AF30" s="1"/>
@@ -1924,13 +1945,13 @@
       <c r="AJ30" s="1"/>
       <c r="AK30" s="1"/>
       <c r="AL30" s="1"/>
-      <c r="AM30" s="1"/>
+      <c r="AM30" s="4"/>
       <c r="AN30" s="1"/>
-      <c r="AO30" s="1"/>
-      <c r="AP30" s="1"/>
-      <c r="AQ30" s="1"/>
+      <c r="AO30" s="4"/>
+      <c r="AP30" s="4"/>
+      <c r="AQ30" s="4"/>
       <c r="AR30" s="1"/>
-      <c r="AS30" s="1"/>
+      <c r="AS30" s="4"/>
       <c r="AT30" s="1"/>
       <c r="AU30" s="1"/>
       <c r="AV30" s="1"/>
@@ -1946,27 +1967,27 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
       <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="2"/>
-      <c r="X31" s="2"/>
-      <c r="Y31" s="2"/>
-      <c r="Z31" s="2"/>
-      <c r="AA31" s="2"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7"/>
       <c r="AB31" s="1"/>
-      <c r="AC31" s="2"/>
+      <c r="AC31" s="3"/>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
       <c r="AF31" s="1"/>
@@ -1977,12 +1998,12 @@
       <c r="AK31" s="1"/>
       <c r="AL31" s="1"/>
       <c r="AM31" s="1"/>
-      <c r="AN31" s="1"/>
+      <c r="AN31" s="4"/>
       <c r="AO31" s="1"/>
       <c r="AP31" s="1"/>
-      <c r="AQ31" s="1"/>
-      <c r="AR31" s="1"/>
-      <c r="AS31" s="1"/>
+      <c r="AQ31" s="4"/>
+      <c r="AR31" s="4"/>
+      <c r="AS31" s="4"/>
       <c r="AT31" s="1"/>
       <c r="AU31" s="1"/>
       <c r="AV31" s="1"/>
@@ -1999,27 +2020,27 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="2"/>
-      <c r="X32" s="2"/>
-      <c r="Y32" s="2"/>
-      <c r="Z32" s="1"/>
-      <c r="AA32" s="2"/>
-      <c r="AB32" s="2"/>
-      <c r="AC32" s="2"/>
-      <c r="AD32" s="2"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="7"/>
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="3"/>
       <c r="AE32" s="1"/>
       <c r="AF32" s="1"/>
       <c r="AG32" s="1"/>
@@ -2034,9 +2055,9 @@
       <c r="AP32" s="1"/>
       <c r="AQ32" s="1"/>
       <c r="AR32" s="1"/>
-      <c r="AS32" s="1"/>
-      <c r="AT32" s="1"/>
-      <c r="AU32" s="1"/>
+      <c r="AS32" s="4"/>
+      <c r="AT32" s="4"/>
+      <c r="AU32" s="4"/>
       <c r="AV32" s="1"/>
       <c r="AW32" s="1"/>
       <c r="AX32" s="1"/>
@@ -2056,21 +2077,21 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="1"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="4"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
-      <c r="Y33" s="1"/>
-      <c r="Z33" s="1"/>
-      <c r="AA33" s="2"/>
-      <c r="AB33" s="1"/>
-      <c r="AC33" s="2"/>
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="7"/>
+      <c r="AA33" s="7"/>
+      <c r="AB33" s="4"/>
+      <c r="AC33" s="3"/>
       <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
       <c r="AF33" s="1"/>
@@ -2085,8 +2106,8 @@
       <c r="AO33" s="1"/>
       <c r="AP33" s="1"/>
       <c r="AQ33" s="1"/>
-      <c r="AR33" s="1"/>
-      <c r="AS33" s="1"/>
+      <c r="AR33" s="4"/>
+      <c r="AS33" s="4"/>
       <c r="AT33" s="1"/>
       <c r="AU33" s="1"/>
       <c r="AV33" s="1"/>
@@ -2106,24 +2127,24 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
+      <c r="M34" s="4"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
-      <c r="AA34" s="2"/>
-      <c r="AB34" s="2"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
       <c r="AC34" s="1"/>
-      <c r="AD34" s="2"/>
+      <c r="AD34" s="3"/>
       <c r="AE34" s="1"/>
       <c r="AF34" s="1"/>
       <c r="AG34" s="1"/>
@@ -2135,8 +2156,8 @@
       <c r="AM34" s="1"/>
       <c r="AN34" s="1"/>
       <c r="AO34" s="1"/>
-      <c r="AP34" s="1"/>
-      <c r="AQ34" s="1"/>
+      <c r="AP34" s="4"/>
+      <c r="AQ34" s="4"/>
       <c r="AR34" s="1"/>
       <c r="AS34" s="1"/>
       <c r="AT34" s="1"/>
@@ -2157,26 +2178,26 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
+      <c r="L35" s="4"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="1"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="4"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
-      <c r="Z35" s="2"/>
-      <c r="AA35" s="2"/>
-      <c r="AB35" s="2"/>
-      <c r="AC35" s="2"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="3"/>
       <c r="AD35" s="1"/>
-      <c r="AE35" s="2"/>
+      <c r="AE35" s="3"/>
       <c r="AF35" s="1"/>
       <c r="AG35" s="1"/>
       <c r="AH35" s="1"/>
@@ -2199,7 +2220,7 @@
     </row>
     <row r="36" spans="1:50">
       <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
+      <c r="B36" s="4"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -2213,10 +2234,10 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
@@ -2224,13 +2245,13 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
-      <c r="AA36" s="2"/>
-      <c r="AB36" s="2"/>
-      <c r="AC36" s="2"/>
-      <c r="AD36" s="2"/>
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="3"/>
+      <c r="AC36" s="3"/>
+      <c r="AD36" s="3"/>
       <c r="AE36" s="1"/>
       <c r="AF36" s="1"/>
-      <c r="AG36" s="1"/>
+      <c r="AG36" s="4"/>
       <c r="AH36" s="1"/>
       <c r="AI36" s="1"/>
       <c r="AJ36" s="1"/>
@@ -2246,13 +2267,13 @@
       <c r="AT36" s="1"/>
       <c r="AU36" s="1"/>
       <c r="AV36" s="1"/>
-      <c r="AW36" s="1"/>
+      <c r="AW36" s="4"/>
       <c r="AX36" s="1"/>
     </row>
     <row r="37" spans="1:50">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
+      <c r="C37" s="4"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -2266,20 +2287,20 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
       <c r="U37" s="1"/>
-      <c r="V37" s="2"/>
+      <c r="V37" s="3"/>
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
-      <c r="AB37" s="2"/>
-      <c r="AC37" s="2"/>
-      <c r="AD37" s="2"/>
+      <c r="AB37" s="3"/>
+      <c r="AC37" s="3"/>
+      <c r="AD37" s="3"/>
       <c r="AE37" s="1"/>
       <c r="AF37" s="1"/>
       <c r="AG37" s="1"/>
@@ -2316,23 +2337,23 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
+      <c r="O38" s="4"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
-      <c r="W38" s="2"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
       <c r="AA38" s="1"/>
-      <c r="AB38" s="2"/>
-      <c r="AC38" s="2"/>
+      <c r="AB38" s="3"/>
+      <c r="AC38" s="3"/>
       <c r="AD38" s="1"/>
-      <c r="AE38" s="2"/>
+      <c r="AE38" s="3"/>
       <c r="AF38" s="1"/>
       <c r="AG38" s="1"/>
       <c r="AH38" s="1"/>
@@ -2340,7 +2361,7 @@
       <c r="AJ38" s="1"/>
       <c r="AK38" s="1"/>
       <c r="AL38" s="1"/>
-      <c r="AM38" s="2"/>
+      <c r="AM38" s="3"/>
       <c r="AN38" s="1"/>
       <c r="AO38" s="1"/>
       <c r="AP38" s="1"/>
@@ -2368,41 +2389,41 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
+      <c r="O39" s="4"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
-      <c r="V39" s="2"/>
-      <c r="W39" s="2"/>
-      <c r="X39" s="2"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
-      <c r="AB39" s="2"/>
-      <c r="AC39" s="2"/>
-      <c r="AD39" s="2"/>
-      <c r="AE39" s="2"/>
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
       <c r="AF39" s="1"/>
       <c r="AG39" s="1"/>
       <c r="AH39" s="1"/>
       <c r="AI39" s="1"/>
       <c r="AJ39" s="1"/>
       <c r="AK39" s="1"/>
-      <c r="AL39" s="2"/>
-      <c r="AM39" s="2"/>
-      <c r="AN39" s="2"/>
-      <c r="AO39" s="2"/>
+      <c r="AL39" s="3"/>
+      <c r="AM39" s="3"/>
+      <c r="AN39" s="3"/>
+      <c r="AO39" s="3"/>
       <c r="AP39" s="1"/>
       <c r="AQ39" s="1"/>
-      <c r="AR39" s="2"/>
-      <c r="AS39" s="2"/>
-      <c r="AT39" s="2"/>
-      <c r="AU39" s="2"/>
+      <c r="AR39" s="3"/>
+      <c r="AS39" s="3"/>
+      <c r="AT39" s="3"/>
+      <c r="AU39" s="3"/>
       <c r="AV39" s="1"/>
-      <c r="AW39" s="2"/>
+      <c r="AW39" s="3"/>
       <c r="AX39" s="1"/>
     </row>
     <row r="40" spans="1:50">
@@ -2418,44 +2439,44 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
-      <c r="V40" s="2"/>
-      <c r="W40" s="2"/>
-      <c r="X40" s="2"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
-      <c r="AB40" s="2"/>
-      <c r="AC40" s="2"/>
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
       <c r="AD40" s="1"/>
-      <c r="AE40" s="2"/>
-      <c r="AF40" s="2"/>
-      <c r="AG40" s="2"/>
-      <c r="AH40" s="2"/>
+      <c r="AE40" s="3"/>
+      <c r="AF40" s="3"/>
+      <c r="AG40" s="3"/>
+      <c r="AH40" s="3"/>
       <c r="AI40" s="1"/>
       <c r="AJ40" s="1"/>
       <c r="AK40" s="1"/>
-      <c r="AL40" s="2"/>
-      <c r="AM40" s="2"/>
-      <c r="AN40" s="2"/>
-      <c r="AO40" s="2"/>
-      <c r="AP40" s="2"/>
-      <c r="AQ40" s="1"/>
-      <c r="AR40" s="2"/>
-      <c r="AS40" s="2"/>
-      <c r="AT40" s="2"/>
-      <c r="AU40" s="2"/>
+      <c r="AL40" s="3"/>
+      <c r="AM40" s="3"/>
+      <c r="AN40" s="3"/>
+      <c r="AO40" s="3"/>
+      <c r="AP40" s="7"/>
+      <c r="AQ40" s="7"/>
+      <c r="AR40" s="7"/>
+      <c r="AS40" s="3"/>
+      <c r="AT40" s="3"/>
+      <c r="AU40" s="3"/>
       <c r="AV40" s="1"/>
-      <c r="AW40" s="2"/>
-      <c r="AX40" s="2"/>
+      <c r="AW40" s="3"/>
+      <c r="AX40" s="3"/>
     </row>
     <row r="41" spans="1:50">
       <c r="A41" s="1"/>
@@ -2471,95 +2492,95 @@
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
+      <c r="N41" s="4"/>
       <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
-      <c r="W41" s="2"/>
-      <c r="X41" s="2"/>
-      <c r="Y41" s="2"/>
-      <c r="Z41" s="2"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
       <c r="AA41" s="1"/>
-      <c r="AB41" s="2"/>
-      <c r="AC41" s="2"/>
-      <c r="AD41" s="2"/>
+      <c r="AB41" s="3"/>
+      <c r="AC41" s="3"/>
+      <c r="AD41" s="3"/>
       <c r="AE41" s="1"/>
-      <c r="AF41" s="2"/>
-      <c r="AG41" s="2"/>
+      <c r="AF41" s="3"/>
+      <c r="AG41" s="3"/>
       <c r="AH41" s="1"/>
-      <c r="AI41" s="2"/>
-      <c r="AJ41" s="2"/>
-      <c r="AK41" s="2"/>
-      <c r="AL41" s="2"/>
+      <c r="AI41" s="3"/>
+      <c r="AJ41" s="3"/>
+      <c r="AK41" s="3"/>
+      <c r="AL41" s="3"/>
       <c r="AM41" s="1"/>
       <c r="AN41" s="1"/>
       <c r="AO41" s="1"/>
-      <c r="AP41" s="2"/>
-      <c r="AQ41" s="2"/>
-      <c r="AR41" s="2"/>
+      <c r="AP41" s="7"/>
+      <c r="AQ41" s="7"/>
+      <c r="AR41" s="3"/>
       <c r="AS41" s="1"/>
       <c r="AT41" s="1"/>
       <c r="AU41" s="1"/>
-      <c r="AV41" s="2"/>
-      <c r="AW41" s="2"/>
+      <c r="AV41" s="3"/>
+      <c r="AW41" s="3"/>
       <c r="AX41" s="1"/>
     </row>
     <row r="42" spans="1:50">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="D42" s="4"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
+      <c r="J42" s="4"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
       <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
+      <c r="P42" s="4"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
-      <c r="W42" s="2"/>
-      <c r="X42" s="2"/>
-      <c r="Y42" s="2"/>
-      <c r="Z42" s="2"/>
-      <c r="AA42" s="2"/>
-      <c r="AB42" s="2"/>
-      <c r="AC42" s="2"/>
-      <c r="AD42" s="2"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
+      <c r="AA42" s="3"/>
+      <c r="AB42" s="3"/>
+      <c r="AC42" s="3"/>
+      <c r="AD42" s="3"/>
       <c r="AE42" s="1"/>
-      <c r="AF42" s="2"/>
-      <c r="AG42" s="2"/>
-      <c r="AH42" s="2"/>
+      <c r="AF42" s="3"/>
+      <c r="AG42" s="3"/>
+      <c r="AH42" s="3"/>
       <c r="AI42" s="1"/>
-      <c r="AJ42" s="2"/>
-      <c r="AK42" s="2"/>
-      <c r="AL42" s="2"/>
-      <c r="AM42" s="2"/>
+      <c r="AJ42" s="3"/>
+      <c r="AK42" s="3"/>
+      <c r="AL42" s="3"/>
+      <c r="AM42" s="3"/>
       <c r="AN42" s="1"/>
-      <c r="AO42" s="2"/>
-      <c r="AP42" s="2"/>
-      <c r="AQ42" s="1"/>
-      <c r="AR42" s="2"/>
-      <c r="AS42" s="2"/>
-      <c r="AT42" s="2"/>
+      <c r="AO42" s="3"/>
+      <c r="AP42" s="3"/>
+      <c r="AQ42" s="7"/>
+      <c r="AR42" s="3"/>
+      <c r="AS42" s="3"/>
+      <c r="AT42" s="3"/>
       <c r="AU42" s="1"/>
-      <c r="AV42" s="2"/>
-      <c r="AW42" s="2"/>
-      <c r="AX42" s="2"/>
+      <c r="AV42" s="3"/>
+      <c r="AW42" s="3"/>
+      <c r="AX42" s="3"/>
     </row>
     <row r="43" spans="1:50">
       <c r="A43" s="1"/>
@@ -2570,48 +2591,48 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
+      <c r="I43" s="4"/>
       <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
+      <c r="K43" s="4"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
-      <c r="U43" s="1"/>
+      <c r="U43" s="4"/>
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
-      <c r="Y43" s="2"/>
-      <c r="Z43" s="2"/>
-      <c r="AA43" s="2"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
+      <c r="AA43" s="3"/>
       <c r="AB43" s="1"/>
-      <c r="AC43" s="2"/>
-      <c r="AD43" s="2"/>
+      <c r="AC43" s="3"/>
+      <c r="AD43" s="3"/>
       <c r="AE43" s="1"/>
-      <c r="AF43" s="2"/>
-      <c r="AG43" s="2"/>
-      <c r="AH43" s="2"/>
-      <c r="AI43" s="2"/>
+      <c r="AF43" s="3"/>
+      <c r="AG43" s="3"/>
+      <c r="AH43" s="3"/>
+      <c r="AI43" s="3"/>
       <c r="AJ43" s="1"/>
-      <c r="AK43" s="2"/>
+      <c r="AK43" s="3"/>
       <c r="AL43" s="1"/>
-      <c r="AM43" s="2"/>
-      <c r="AN43" s="2"/>
-      <c r="AO43" s="2"/>
-      <c r="AP43" s="2"/>
+      <c r="AM43" s="3"/>
+      <c r="AN43" s="3"/>
+      <c r="AO43" s="3"/>
+      <c r="AP43" s="3"/>
       <c r="AQ43" s="1"/>
       <c r="AR43" s="1"/>
-      <c r="AS43" s="2"/>
-      <c r="AT43" s="2"/>
-      <c r="AU43" s="2"/>
-      <c r="AV43" s="2"/>
-      <c r="AW43" s="2"/>
-      <c r="AX43" s="2"/>
+      <c r="AS43" s="3"/>
+      <c r="AT43" s="3"/>
+      <c r="AU43" s="3"/>
+      <c r="AV43" s="3"/>
+      <c r="AW43" s="3"/>
+      <c r="AX43" s="3"/>
     </row>
     <row r="44" spans="1:50">
       <c r="A44" s="1"/>
@@ -2624,44 +2645,44 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
       <c r="R44" s="1"/>
-      <c r="S44" s="1"/>
+      <c r="S44" s="4"/>
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
-      <c r="V44" s="1"/>
+      <c r="V44" s="4"/>
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
-      <c r="Z44" s="2"/>
-      <c r="AA44" s="2"/>
-      <c r="AB44" s="2"/>
-      <c r="AC44" s="2"/>
-      <c r="AD44" s="2"/>
-      <c r="AE44" s="2"/>
+      <c r="Z44" s="3"/>
+      <c r="AA44" s="3"/>
+      <c r="AB44" s="3"/>
+      <c r="AC44" s="3"/>
+      <c r="AD44" s="3"/>
+      <c r="AE44" s="3"/>
       <c r="AF44" s="1"/>
-      <c r="AG44" s="2"/>
+      <c r="AG44" s="3"/>
       <c r="AH44" s="1"/>
       <c r="AI44" s="1"/>
       <c r="AJ44" s="1"/>
       <c r="AK44" s="1"/>
       <c r="AL44" s="1"/>
       <c r="AM44" s="1"/>
-      <c r="AN44" s="2"/>
-      <c r="AO44" s="2"/>
+      <c r="AN44" s="3"/>
+      <c r="AO44" s="3"/>
       <c r="AP44" s="1"/>
       <c r="AQ44" s="1"/>
       <c r="AR44" s="1"/>
       <c r="AS44" s="1"/>
       <c r="AT44" s="1"/>
-      <c r="AU44" s="2"/>
-      <c r="AV44" s="2"/>
+      <c r="AU44" s="3"/>
+      <c r="AV44" s="3"/>
       <c r="AW44" s="1"/>
       <c r="AX44" s="1"/>
     </row>
@@ -2671,18 +2692,18 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
+      <c r="F45" s="4"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
@@ -2692,11 +2713,11 @@
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
-      <c r="AA45" s="2"/>
-      <c r="AB45" s="2"/>
-      <c r="AC45" s="2"/>
-      <c r="AD45" s="2"/>
-      <c r="AE45" s="2"/>
+      <c r="AA45" s="3"/>
+      <c r="AB45" s="3"/>
+      <c r="AC45" s="3"/>
+      <c r="AD45" s="3"/>
+      <c r="AE45" s="3"/>
       <c r="AF45" s="1"/>
       <c r="AG45" s="1"/>
       <c r="AH45" s="1"/>
@@ -2729,30 +2750,30 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="1"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
       <c r="S46" s="1"/>
-      <c r="T46" s="1"/>
+      <c r="T46" s="4"/>
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
-      <c r="X46" s="1"/>
+      <c r="X46" s="4"/>
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
       <c r="AA46" s="1"/>
-      <c r="AB46" s="2"/>
-      <c r="AC46" s="2"/>
+      <c r="AB46" s="3"/>
+      <c r="AC46" s="3"/>
       <c r="AD46" s="1"/>
       <c r="AE46" s="1"/>
       <c r="AF46" s="1"/>
       <c r="AG46" s="1"/>
       <c r="AH46" s="1"/>
-      <c r="AI46" s="1"/>
+      <c r="AI46" s="4"/>
       <c r="AJ46" s="1"/>
       <c r="AK46" s="1"/>
       <c r="AL46" s="1"/>
@@ -2782,24 +2803,24 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
       <c r="Q47" s="1"/>
-      <c r="R47" s="1"/>
+      <c r="R47" s="4"/>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
-      <c r="Y47" s="1"/>
+      <c r="Y47" s="4"/>
       <c r="Z47" s="1"/>
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
       <c r="AC47" s="1"/>
-      <c r="AD47" s="1"/>
+      <c r="AD47" s="4"/>
       <c r="AE47" s="1"/>
       <c r="AF47" s="1"/>
       <c r="AG47" s="1"/>
@@ -2835,11 +2856,11 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
+      <c r="N48" s="4"/>
       <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="1"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
@@ -2885,7 +2906,7 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
+      <c r="L49" s="4"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
@@ -2939,8 +2960,8 @@
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
@@ -2957,13 +2978,13 @@
       <c r="AC50" s="1"/>
       <c r="AD50" s="1"/>
       <c r="AE50" s="1"/>
-      <c r="AF50" s="1"/>
+      <c r="AF50" s="4"/>
       <c r="AG50" s="1"/>
       <c r="AH50" s="1"/>
       <c r="AI50" s="1"/>
       <c r="AJ50" s="1"/>
       <c r="AK50" s="1"/>
-      <c r="AL50" s="1"/>
+      <c r="AL50" s="4"/>
       <c r="AM50" s="1"/>
       <c r="AN50" s="1"/>
       <c r="AO50" s="1"/>

--- a/game_map_1.xlsx
+++ b/game_map_1.xlsx
@@ -57,13 +57,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FF999999"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF222222"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -74,7 +74,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -82,19 +82,178 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,14 +573,14 @@
       <c r="M1" s="2"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
       <c r="Z1" s="2"/>
@@ -467,14 +626,14 @@
       <c r="N2" s="2"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
       <c r="S2" s="3"/>
       <c r="T2" s="1"/>
-      <c r="U2" s="4"/>
+      <c r="U2" s="1"/>
       <c r="V2" s="1"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
@@ -522,9 +681,9 @@
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
-      <c r="T3" s="4"/>
+      <c r="T3" s="1"/>
       <c r="U3" s="1"/>
-      <c r="V3" s="4"/>
+      <c r="V3" s="1"/>
       <c r="W3" s="4"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
@@ -574,9 +733,9 @@
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
@@ -590,12 +749,12 @@
       <c r="AG4" s="2"/>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
-      <c r="AJ4" s="1"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
-      <c r="AM4" s="2"/>
-      <c r="AN4" s="2"/>
-      <c r="AO4" s="2"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="6"/>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="6"/>
+      <c r="AN4" s="6"/>
+      <c r="AO4" s="6"/>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2"/>
       <c r="AR4" s="2"/>
@@ -624,10 +783,10 @@
       <c r="O5" s="2"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -641,14 +800,14 @@
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
       <c r="AH5" s="1"/>
-      <c r="AI5" s="1"/>
-      <c r="AJ5" s="1"/>
-      <c r="AK5" s="5"/>
-      <c r="AL5" s="2"/>
-      <c r="AM5" s="1"/>
-      <c r="AN5" s="1"/>
-      <c r="AO5" s="2"/>
-      <c r="AP5" s="2"/>
+      <c r="AI5" s="7"/>
+      <c r="AJ5" s="8"/>
+      <c r="AK5" s="9"/>
+      <c r="AL5" s="9"/>
+      <c r="AM5" s="9"/>
+      <c r="AN5" s="9"/>
+      <c r="AO5" s="10"/>
+      <c r="AP5" s="11"/>
       <c r="AQ5" s="2"/>
       <c r="AR5" s="2"/>
       <c r="AS5" s="2"/>
@@ -676,11 +835,11 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
@@ -690,21 +849,21 @@
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="1"/>
-      <c r="AI6" s="1"/>
-      <c r="AJ6" s="1"/>
-      <c r="AK6" s="5"/>
-      <c r="AL6" s="1"/>
-      <c r="AM6" s="1"/>
-      <c r="AN6" s="1"/>
-      <c r="AO6" s="1"/>
-      <c r="AP6" s="2"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="12"/>
+      <c r="AM6" s="12"/>
+      <c r="AN6" s="12"/>
+      <c r="AO6" s="12"/>
+      <c r="AP6" s="9"/>
       <c r="AQ6" s="2"/>
-      <c r="AR6" s="2"/>
-      <c r="AS6" s="2"/>
-      <c r="AT6" s="2"/>
+      <c r="AR6" s="6"/>
+      <c r="AS6" s="6"/>
+      <c r="AT6" s="6"/>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2"/>
@@ -728,12 +887,12 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
@@ -741,25 +900,25 @@
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
-      <c r="AE7" s="2"/>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="6"/>
-      <c r="AH7" s="6"/>
-      <c r="AI7" s="5"/>
-      <c r="AJ7" s="5"/>
-      <c r="AK7" s="5"/>
-      <c r="AL7" s="1"/>
-      <c r="AM7" s="1"/>
-      <c r="AN7" s="1"/>
-      <c r="AO7" s="1"/>
-      <c r="AP7" s="1"/>
-      <c r="AQ7" s="1"/>
-      <c r="AR7" s="6"/>
-      <c r="AS7" s="6"/>
-      <c r="AT7" s="6"/>
-      <c r="AU7" s="2"/>
+      <c r="AE7" s="13"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="9"/>
+      <c r="AH7" s="9"/>
+      <c r="AI7" s="14"/>
+      <c r="AJ7" s="12"/>
+      <c r="AK7" s="12"/>
+      <c r="AL7" s="12"/>
+      <c r="AM7" s="12"/>
+      <c r="AN7" s="12"/>
+      <c r="AO7" s="12"/>
+      <c r="AP7" s="15"/>
+      <c r="AQ7" s="16"/>
+      <c r="AR7" s="8"/>
+      <c r="AS7" s="9"/>
+      <c r="AT7" s="10"/>
+      <c r="AU7" s="17"/>
       <c r="AV7" s="2"/>
-      <c r="AW7" s="5"/>
+      <c r="AW7" s="1"/>
       <c r="AX7" s="1"/>
     </row>
     <row r="8" spans="1:50">
@@ -781,35 +940,35 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
-      <c r="AE8" s="2"/>
-      <c r="AF8" s="6"/>
-      <c r="AG8" s="6"/>
-      <c r="AH8" s="6"/>
-      <c r="AI8" s="1"/>
-      <c r="AJ8" s="1"/>
-      <c r="AK8" s="1"/>
-      <c r="AL8" s="4"/>
-      <c r="AM8" s="1"/>
-      <c r="AN8" s="1"/>
-      <c r="AO8" s="1"/>
-      <c r="AP8" s="1"/>
-      <c r="AQ8" s="1"/>
-      <c r="AR8" s="6"/>
-      <c r="AS8" s="6"/>
-      <c r="AT8" s="6"/>
-      <c r="AU8" s="2"/>
+      <c r="AE8" s="13"/>
+      <c r="AF8" s="18"/>
+      <c r="AG8" s="12"/>
+      <c r="AH8" s="19"/>
+      <c r="AI8" s="20"/>
+      <c r="AJ8" s="21"/>
+      <c r="AK8" s="14"/>
+      <c r="AL8" s="14"/>
+      <c r="AM8" s="14"/>
+      <c r="AN8" s="14"/>
+      <c r="AO8" s="15"/>
+      <c r="AP8" s="22"/>
+      <c r="AQ8" s="23"/>
+      <c r="AR8" s="18"/>
+      <c r="AS8" s="12"/>
+      <c r="AT8" s="19"/>
+      <c r="AU8" s="17"/>
       <c r="AV8" s="2"/>
       <c r="AW8" s="2"/>
       <c r="AX8" s="1"/>
@@ -832,36 +991,36 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="3"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
-      <c r="AE9" s="4"/>
-      <c r="AF9" s="6"/>
-      <c r="AG9" s="6"/>
-      <c r="AH9" s="6"/>
-      <c r="AI9" s="6"/>
-      <c r="AJ9" s="6"/>
-      <c r="AK9" s="6"/>
-      <c r="AL9" s="6"/>
-      <c r="AM9" s="6"/>
-      <c r="AN9" s="6"/>
-      <c r="AO9" s="6"/>
-      <c r="AP9" s="6"/>
-      <c r="AQ9" s="6"/>
-      <c r="AR9" s="6"/>
-      <c r="AS9" s="6"/>
-      <c r="AT9" s="6"/>
-      <c r="AU9" s="2"/>
+      <c r="AE9" s="24"/>
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="14"/>
+      <c r="AH9" s="12"/>
+      <c r="AI9" s="9"/>
+      <c r="AJ9" s="9"/>
+      <c r="AK9" s="9"/>
+      <c r="AL9" s="9"/>
+      <c r="AM9" s="9"/>
+      <c r="AN9" s="9"/>
+      <c r="AO9" s="9"/>
+      <c r="AP9" s="9"/>
+      <c r="AQ9" s="9"/>
+      <c r="AR9" s="12"/>
+      <c r="AS9" s="14"/>
+      <c r="AT9" s="15"/>
+      <c r="AU9" s="17"/>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2"/>
       <c r="AX9" s="2"/>
@@ -885,34 +1044,34 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="1"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="25"/>
       <c r="AB10" s="2"/>
       <c r="AC10" s="1"/>
-      <c r="AD10" s="4"/>
+      <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="4"/>
-      <c r="AH10" s="6"/>
-      <c r="AI10" s="6"/>
-      <c r="AJ10" s="6"/>
-      <c r="AK10" s="6"/>
-      <c r="AL10" s="6"/>
-      <c r="AM10" s="6"/>
-      <c r="AN10" s="6"/>
-      <c r="AO10" s="6"/>
-      <c r="AP10" s="6"/>
-      <c r="AQ10" s="6"/>
-      <c r="AR10" s="6"/>
-      <c r="AS10" s="1"/>
-      <c r="AT10" s="1"/>
+      <c r="AF10" s="26"/>
+      <c r="AG10" s="27"/>
+      <c r="AH10" s="18"/>
+      <c r="AI10" s="12"/>
+      <c r="AJ10" s="12"/>
+      <c r="AK10" s="12"/>
+      <c r="AL10" s="12"/>
+      <c r="AM10" s="12"/>
+      <c r="AN10" s="12"/>
+      <c r="AO10" s="12"/>
+      <c r="AP10" s="12"/>
+      <c r="AQ10" s="12"/>
+      <c r="AR10" s="19"/>
+      <c r="AS10" s="28"/>
+      <c r="AT10" s="29"/>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2"/>
@@ -937,34 +1096,34 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="4"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
-      <c r="AC11" s="4"/>
-      <c r="AD11" s="4"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="25"/>
       <c r="AE11" s="1"/>
-      <c r="AF11" s="4"/>
-      <c r="AG11" s="1"/>
-      <c r="AH11" s="6"/>
-      <c r="AI11" s="6"/>
-      <c r="AJ11" s="6"/>
-      <c r="AK11" s="6"/>
-      <c r="AL11" s="6"/>
-      <c r="AM11" s="6"/>
-      <c r="AN11" s="6"/>
-      <c r="AO11" s="6"/>
-      <c r="AP11" s="6"/>
-      <c r="AQ11" s="6"/>
-      <c r="AR11" s="6"/>
-      <c r="AS11" s="5"/>
-      <c r="AT11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="24"/>
+      <c r="AH11" s="18"/>
+      <c r="AI11" s="12"/>
+      <c r="AJ11" s="12"/>
+      <c r="AK11" s="12"/>
+      <c r="AL11" s="12"/>
+      <c r="AM11" s="12"/>
+      <c r="AN11" s="12"/>
+      <c r="AO11" s="12"/>
+      <c r="AP11" s="12"/>
+      <c r="AQ11" s="12"/>
+      <c r="AR11" s="19"/>
+      <c r="AS11" s="17"/>
+      <c r="AT11" s="2"/>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2"/>
       <c r="AW11" s="2"/>
@@ -989,34 +1148,34 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
       <c r="V12" s="1"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="5"/>
-      <c r="AE12" s="5"/>
-      <c r="AF12" s="5"/>
-      <c r="AG12" s="5"/>
-      <c r="AH12" s="6"/>
-      <c r="AI12" s="6"/>
-      <c r="AJ12" s="6"/>
-      <c r="AK12" s="6"/>
-      <c r="AL12" s="6"/>
-      <c r="AM12" s="6"/>
-      <c r="AN12" s="6"/>
-      <c r="AO12" s="6"/>
-      <c r="AP12" s="6"/>
-      <c r="AQ12" s="6"/>
-      <c r="AR12" s="6"/>
-      <c r="AS12" s="5"/>
-      <c r="AT12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="25"/>
+      <c r="AD12" s="25"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="12"/>
+      <c r="AI12" s="12"/>
+      <c r="AJ12" s="12"/>
+      <c r="AK12" s="12"/>
+      <c r="AL12" s="12"/>
+      <c r="AM12" s="12"/>
+      <c r="AN12" s="12"/>
+      <c r="AO12" s="12"/>
+      <c r="AP12" s="12"/>
+      <c r="AQ12" s="12"/>
+      <c r="AR12" s="19"/>
+      <c r="AS12" s="17"/>
+      <c r="AT12" s="2"/>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2"/>
       <c r="AW12" s="2"/>
@@ -1042,33 +1201,33 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="4"/>
-      <c r="AG13" s="4"/>
-      <c r="AH13" s="6"/>
-      <c r="AI13" s="6"/>
-      <c r="AJ13" s="6"/>
-      <c r="AK13" s="6"/>
-      <c r="AL13" s="6"/>
-      <c r="AM13" s="6"/>
-      <c r="AN13" s="6"/>
-      <c r="AO13" s="6"/>
-      <c r="AP13" s="6"/>
-      <c r="AQ13" s="6"/>
-      <c r="AR13" s="6"/>
-      <c r="AS13" s="1"/>
-      <c r="AT13" s="5"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="25"/>
+      <c r="AC13" s="25"/>
+      <c r="AD13" s="25"/>
+      <c r="AE13" s="25"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="12"/>
+      <c r="AI13" s="12"/>
+      <c r="AJ13" s="12"/>
+      <c r="AK13" s="12"/>
+      <c r="AL13" s="12"/>
+      <c r="AM13" s="12"/>
+      <c r="AN13" s="12"/>
+      <c r="AO13" s="12"/>
+      <c r="AP13" s="12"/>
+      <c r="AQ13" s="12"/>
+      <c r="AR13" s="19"/>
+      <c r="AS13" s="17"/>
+      <c r="AT13" s="2"/>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2"/>
       <c r="AW13" s="2"/>
@@ -1094,33 +1253,33 @@
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
-      <c r="T14" s="4"/>
+      <c r="T14" s="1"/>
       <c r="U14" s="1"/>
-      <c r="V14" s="4"/>
+      <c r="V14" s="1"/>
       <c r="W14" s="1"/>
-      <c r="X14" s="4"/>
+      <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
-      <c r="Z14" s="4"/>
+      <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4"/>
-      <c r="AE14" s="4"/>
-      <c r="AF14" s="4"/>
-      <c r="AG14" s="4"/>
-      <c r="AH14" s="6"/>
-      <c r="AI14" s="6"/>
-      <c r="AJ14" s="6"/>
-      <c r="AK14" s="6"/>
-      <c r="AL14" s="6"/>
-      <c r="AM14" s="6"/>
-      <c r="AN14" s="6"/>
-      <c r="AO14" s="6"/>
-      <c r="AP14" s="6"/>
-      <c r="AQ14" s="6"/>
-      <c r="AR14" s="6"/>
-      <c r="AS14" s="1"/>
-      <c r="AT14" s="1"/>
+      <c r="AC14" s="25"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="25"/>
+      <c r="AH14" s="12"/>
+      <c r="AI14" s="12"/>
+      <c r="AJ14" s="12"/>
+      <c r="AK14" s="12"/>
+      <c r="AL14" s="12"/>
+      <c r="AM14" s="12"/>
+      <c r="AN14" s="12"/>
+      <c r="AO14" s="12"/>
+      <c r="AP14" s="12"/>
+      <c r="AQ14" s="12"/>
+      <c r="AR14" s="19"/>
+      <c r="AS14" s="17"/>
+      <c r="AT14" s="2"/>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2"/>
       <c r="AW14" s="2"/>
@@ -1146,33 +1305,33 @@
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="1"/>
-      <c r="T15" s="4"/>
+      <c r="T15" s="1"/>
       <c r="U15" s="1"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
-      <c r="AD15" s="4"/>
-      <c r="AE15" s="4"/>
-      <c r="AF15" s="4"/>
-      <c r="AG15" s="5"/>
-      <c r="AH15" s="6"/>
-      <c r="AI15" s="6"/>
-      <c r="AJ15" s="6"/>
-      <c r="AK15" s="6"/>
-      <c r="AL15" s="6"/>
-      <c r="AM15" s="6"/>
-      <c r="AN15" s="6"/>
-      <c r="AO15" s="6"/>
-      <c r="AP15" s="6"/>
-      <c r="AQ15" s="6"/>
-      <c r="AR15" s="6"/>
-      <c r="AS15" s="1"/>
-      <c r="AT15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="25"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="25"/>
+      <c r="AH15" s="12"/>
+      <c r="AI15" s="12"/>
+      <c r="AJ15" s="12"/>
+      <c r="AK15" s="12"/>
+      <c r="AL15" s="12"/>
+      <c r="AM15" s="12"/>
+      <c r="AN15" s="12"/>
+      <c r="AO15" s="12"/>
+      <c r="AP15" s="12"/>
+      <c r="AQ15" s="12"/>
+      <c r="AR15" s="19"/>
+      <c r="AS15" s="17"/>
+      <c r="AT15" s="2"/>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2"/>
@@ -1200,31 +1359,31 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
-      <c r="V16" s="4"/>
+      <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
-      <c r="Y16" s="4"/>
+      <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
-      <c r="AD16" s="4"/>
-      <c r="AE16" s="4"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="25"/>
       <c r="AF16" s="1"/>
-      <c r="AG16" s="4"/>
-      <c r="AH16" s="6"/>
-      <c r="AI16" s="6"/>
-      <c r="AJ16" s="6"/>
-      <c r="AK16" s="6"/>
-      <c r="AL16" s="6"/>
-      <c r="AM16" s="6"/>
-      <c r="AN16" s="6"/>
-      <c r="AO16" s="6"/>
-      <c r="AP16" s="6"/>
-      <c r="AQ16" s="6"/>
-      <c r="AR16" s="6"/>
-      <c r="AS16" s="1"/>
-      <c r="AT16" s="1"/>
+      <c r="AG16" s="30"/>
+      <c r="AH16" s="18"/>
+      <c r="AI16" s="12"/>
+      <c r="AJ16" s="12"/>
+      <c r="AK16" s="12"/>
+      <c r="AL16" s="12"/>
+      <c r="AM16" s="12"/>
+      <c r="AN16" s="12"/>
+      <c r="AO16" s="12"/>
+      <c r="AP16" s="12"/>
+      <c r="AQ16" s="12"/>
+      <c r="AR16" s="19"/>
+      <c r="AS16" s="17"/>
+      <c r="AT16" s="2"/>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2"/>
       <c r="AW16" s="2"/>
@@ -1250,7 +1409,7 @@
       <c r="Q17" s="3"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
-      <c r="T17" s="4"/>
+      <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
@@ -1259,24 +1418,24 @@
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="4"/>
+      <c r="AC17" s="25"/>
+      <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
-      <c r="AF17" s="1"/>
-      <c r="AG17" s="1"/>
-      <c r="AH17" s="6"/>
-      <c r="AI17" s="6"/>
-      <c r="AJ17" s="6"/>
-      <c r="AK17" s="6"/>
-      <c r="AL17" s="6"/>
-      <c r="AM17" s="6"/>
-      <c r="AN17" s="6"/>
-      <c r="AO17" s="6"/>
-      <c r="AP17" s="6"/>
-      <c r="AQ17" s="6"/>
-      <c r="AR17" s="6"/>
-      <c r="AS17" s="1"/>
-      <c r="AT17" s="1"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="7"/>
+      <c r="AH17" s="18"/>
+      <c r="AI17" s="12"/>
+      <c r="AJ17" s="12"/>
+      <c r="AK17" s="12"/>
+      <c r="AL17" s="12"/>
+      <c r="AM17" s="12"/>
+      <c r="AN17" s="12"/>
+      <c r="AO17" s="12"/>
+      <c r="AP17" s="12"/>
+      <c r="AQ17" s="12"/>
+      <c r="AR17" s="19"/>
+      <c r="AS17" s="11"/>
+      <c r="AT17" s="6"/>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2"/>
       <c r="AW17" s="2"/>
@@ -1313,23 +1472,23 @@
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
-      <c r="AE18" s="4"/>
-      <c r="AF18" s="6"/>
-      <c r="AG18" s="6"/>
-      <c r="AH18" s="6"/>
-      <c r="AI18" s="6"/>
-      <c r="AJ18" s="6"/>
-      <c r="AK18" s="6"/>
-      <c r="AL18" s="6"/>
-      <c r="AM18" s="6"/>
-      <c r="AN18" s="6"/>
-      <c r="AO18" s="6"/>
-      <c r="AP18" s="6"/>
-      <c r="AQ18" s="6"/>
-      <c r="AR18" s="6"/>
-      <c r="AS18" s="6"/>
-      <c r="AT18" s="6"/>
-      <c r="AU18" s="2"/>
+      <c r="AE18" s="24"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="9"/>
+      <c r="AH18" s="12"/>
+      <c r="AI18" s="14"/>
+      <c r="AJ18" s="14"/>
+      <c r="AK18" s="14"/>
+      <c r="AL18" s="14"/>
+      <c r="AM18" s="14"/>
+      <c r="AN18" s="14"/>
+      <c r="AO18" s="14"/>
+      <c r="AP18" s="14"/>
+      <c r="AQ18" s="14"/>
+      <c r="AR18" s="12"/>
+      <c r="AS18" s="9"/>
+      <c r="AT18" s="10"/>
+      <c r="AU18" s="17"/>
       <c r="AV18" s="2"/>
       <c r="AW18" s="2"/>
       <c r="AX18" s="1"/>
@@ -1362,26 +1521,26 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="4"/>
+      <c r="AB19" s="25"/>
+      <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
-      <c r="AE19" s="1"/>
-      <c r="AF19" s="6"/>
-      <c r="AG19" s="6"/>
-      <c r="AH19" s="6"/>
-      <c r="AI19" s="1"/>
-      <c r="AJ19" s="1"/>
-      <c r="AK19" s="5"/>
-      <c r="AL19" s="5"/>
-      <c r="AM19" s="1"/>
-      <c r="AN19" s="1"/>
-      <c r="AO19" s="1"/>
-      <c r="AP19" s="1"/>
-      <c r="AQ19" s="1"/>
-      <c r="AR19" s="6"/>
-      <c r="AS19" s="6"/>
-      <c r="AT19" s="6"/>
-      <c r="AU19" s="2"/>
+      <c r="AE19" s="24"/>
+      <c r="AF19" s="18"/>
+      <c r="AG19" s="12"/>
+      <c r="AH19" s="19"/>
+      <c r="AI19" s="31"/>
+      <c r="AJ19" s="27"/>
+      <c r="AK19" s="8"/>
+      <c r="AL19" s="9"/>
+      <c r="AM19" s="9"/>
+      <c r="AN19" s="9"/>
+      <c r="AO19" s="9"/>
+      <c r="AP19" s="9"/>
+      <c r="AQ19" s="32"/>
+      <c r="AR19" s="18"/>
+      <c r="AS19" s="12"/>
+      <c r="AT19" s="19"/>
+      <c r="AU19" s="17"/>
       <c r="AV19" s="2"/>
       <c r="AW19" s="1"/>
       <c r="AX19" s="1"/>
@@ -1400,43 +1559,43 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
+      <c r="W20" s="4"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
+      <c r="AC20" s="25"/>
       <c r="AD20" s="1"/>
-      <c r="AE20" s="5"/>
-      <c r="AF20" s="6"/>
-      <c r="AG20" s="6"/>
-      <c r="AH20" s="6"/>
-      <c r="AI20" s="1"/>
-      <c r="AJ20" s="1"/>
-      <c r="AK20" s="1"/>
-      <c r="AL20" s="5"/>
-      <c r="AM20" s="1"/>
-      <c r="AN20" s="1"/>
-      <c r="AO20" s="1"/>
-      <c r="AP20" s="1"/>
-      <c r="AQ20" s="1"/>
-      <c r="AR20" s="6"/>
-      <c r="AS20" s="6"/>
-      <c r="AT20" s="6"/>
-      <c r="AU20" s="1"/>
-      <c r="AV20" s="1"/>
-      <c r="AW20" s="5"/>
-      <c r="AX20" s="1"/>
+      <c r="AE20" s="24"/>
+      <c r="AF20" s="21"/>
+      <c r="AG20" s="14"/>
+      <c r="AH20" s="15"/>
+      <c r="AI20" s="34"/>
+      <c r="AJ20" s="35"/>
+      <c r="AK20" s="18"/>
+      <c r="AL20" s="12"/>
+      <c r="AM20" s="12"/>
+      <c r="AN20" s="12"/>
+      <c r="AO20" s="12"/>
+      <c r="AP20" s="19"/>
+      <c r="AQ20" s="36"/>
+      <c r="AR20" s="21"/>
+      <c r="AS20" s="14"/>
+      <c r="AT20" s="15"/>
+      <c r="AU20" s="37"/>
+      <c r="AV20" s="4"/>
+      <c r="AW20" s="1"/>
+      <c r="AX20" s="25"/>
     </row>
     <row r="21" spans="1:50">
       <c r="A21" s="1"/>
@@ -1452,9 +1611,9 @@
       <c r="K21" s="3"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
@@ -1462,33 +1621,33 @@
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
-      <c r="X21" s="4"/>
+      <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
+      <c r="AC21" s="25"/>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
-      <c r="AF21" s="5"/>
-      <c r="AG21" s="1"/>
-      <c r="AH21" s="1"/>
+      <c r="AF21" s="26"/>
+      <c r="AG21" s="38"/>
+      <c r="AH21" s="26"/>
       <c r="AI21" s="1"/>
-      <c r="AJ21" s="1"/>
-      <c r="AK21" s="1"/>
-      <c r="AL21" s="1"/>
-      <c r="AM21" s="1"/>
-      <c r="AN21" s="1"/>
-      <c r="AO21" s="5"/>
-      <c r="AP21" s="1"/>
-      <c r="AQ21" s="1"/>
-      <c r="AR21" s="1"/>
-      <c r="AS21" s="1"/>
-      <c r="AT21" s="1"/>
-      <c r="AU21" s="1"/>
-      <c r="AV21" s="1"/>
-      <c r="AW21" s="5"/>
-      <c r="AX21" s="1"/>
+      <c r="AJ21" s="24"/>
+      <c r="AK21" s="18"/>
+      <c r="AL21" s="12"/>
+      <c r="AM21" s="12"/>
+      <c r="AN21" s="12"/>
+      <c r="AO21" s="12"/>
+      <c r="AP21" s="19"/>
+      <c r="AQ21" s="39"/>
+      <c r="AR21" s="40"/>
+      <c r="AS21" s="40"/>
+      <c r="AT21" s="40"/>
+      <c r="AU21" s="25"/>
+      <c r="AV21" s="4"/>
+      <c r="AW21" s="4"/>
+      <c r="AX21" s="25"/>
     </row>
     <row r="22" spans="1:50">
       <c r="A22" s="1"/>
@@ -1519,28 +1678,28 @@
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
-      <c r="AC22" s="1"/>
+      <c r="AC22" s="25"/>
       <c r="AD22" s="1"/>
-      <c r="AE22" s="5"/>
-      <c r="AF22" s="5"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
-      <c r="AH22" s="4"/>
-      <c r="AI22" s="4"/>
-      <c r="AJ22" s="1"/>
-      <c r="AK22" s="1"/>
-      <c r="AL22" s="5"/>
-      <c r="AM22" s="1"/>
-      <c r="AN22" s="1"/>
-      <c r="AO22" s="5"/>
-      <c r="AP22" s="1"/>
-      <c r="AQ22" s="1"/>
-      <c r="AR22" s="1"/>
-      <c r="AS22" s="5"/>
-      <c r="AT22" s="1"/>
-      <c r="AU22" s="1"/>
-      <c r="AV22" s="1"/>
-      <c r="AW22" s="5"/>
-      <c r="AX22" s="5"/>
+      <c r="AH22" s="1"/>
+      <c r="AI22" s="1"/>
+      <c r="AJ22" s="24"/>
+      <c r="AK22" s="21"/>
+      <c r="AL22" s="14"/>
+      <c r="AM22" s="14"/>
+      <c r="AN22" s="14"/>
+      <c r="AO22" s="14"/>
+      <c r="AP22" s="15"/>
+      <c r="AQ22" s="39"/>
+      <c r="AR22" s="4"/>
+      <c r="AS22" s="4"/>
+      <c r="AT22" s="4"/>
+      <c r="AU22" s="25"/>
+      <c r="AV22" s="4"/>
+      <c r="AW22" s="1"/>
+      <c r="AX22" s="25"/>
     </row>
     <row r="23" spans="1:50">
       <c r="A23" s="1"/>
@@ -1561,7 +1720,7 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="1"/>
-      <c r="S23" s="4"/>
+      <c r="S23" s="1"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
@@ -1571,28 +1730,28 @@
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
-      <c r="AC23" s="1"/>
-      <c r="AD23" s="5"/>
+      <c r="AC23" s="25"/>
+      <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
-      <c r="AG23" s="4"/>
+      <c r="AG23" s="1"/>
       <c r="AH23" s="1"/>
       <c r="AI23" s="1"/>
       <c r="AJ23" s="1"/>
-      <c r="AK23" s="1"/>
-      <c r="AL23" s="1"/>
-      <c r="AM23" s="1"/>
-      <c r="AN23" s="5"/>
-      <c r="AO23" s="1"/>
-      <c r="AP23" s="1"/>
+      <c r="AK23" s="26"/>
+      <c r="AL23" s="26"/>
+      <c r="AM23" s="26"/>
+      <c r="AN23" s="26"/>
+      <c r="AO23" s="26"/>
+      <c r="AP23" s="26"/>
       <c r="AQ23" s="1"/>
-      <c r="AR23" s="1"/>
+      <c r="AR23" s="4"/>
       <c r="AS23" s="1"/>
-      <c r="AT23" s="1"/>
-      <c r="AU23" s="1"/>
-      <c r="AV23" s="1"/>
-      <c r="AW23" s="5"/>
-      <c r="AX23" s="1"/>
+      <c r="AT23" s="4"/>
+      <c r="AU23" s="25"/>
+      <c r="AV23" s="4"/>
+      <c r="AW23" s="25"/>
+      <c r="AX23" s="4"/>
     </row>
     <row r="24" spans="1:50">
       <c r="A24" s="1"/>
@@ -1624,26 +1783,26 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
-      <c r="AD24" s="5"/>
+      <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
       <c r="AF24" s="1"/>
-      <c r="AG24" s="5"/>
-      <c r="AH24" s="4"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1"/>
       <c r="AI24" s="1"/>
       <c r="AJ24" s="1"/>
       <c r="AK24" s="1"/>
-      <c r="AL24" s="1"/>
+      <c r="AL24" s="4"/>
       <c r="AM24" s="1"/>
-      <c r="AN24" s="5"/>
-      <c r="AO24" s="5"/>
-      <c r="AP24" s="1"/>
+      <c r="AN24" s="25"/>
+      <c r="AO24" s="4"/>
+      <c r="AP24" s="4"/>
       <c r="AQ24" s="1"/>
-      <c r="AR24" s="1"/>
-      <c r="AS24" s="1"/>
-      <c r="AT24" s="1"/>
-      <c r="AU24" s="1"/>
-      <c r="AV24" s="1"/>
-      <c r="AW24" s="1"/>
+      <c r="AR24" s="4"/>
+      <c r="AS24" s="4"/>
+      <c r="AT24" s="4"/>
+      <c r="AU24" s="4"/>
+      <c r="AV24" s="4"/>
+      <c r="AW24" s="25"/>
       <c r="AX24" s="1"/>
     </row>
     <row r="25" spans="1:50">
@@ -1656,7 +1815,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="4"/>
+      <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -1675,27 +1834,27 @@
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
-      <c r="AC25" s="5"/>
-      <c r="AD25" s="5"/>
-      <c r="AE25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="25"/>
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
-      <c r="AH25" s="1"/>
-      <c r="AI25" s="1"/>
+      <c r="AH25" s="25"/>
+      <c r="AI25" s="25"/>
       <c r="AJ25" s="1"/>
       <c r="AK25" s="1"/>
       <c r="AL25" s="1"/>
-      <c r="AM25" s="5"/>
-      <c r="AN25" s="5"/>
-      <c r="AO25" s="5"/>
-      <c r="AP25" s="1"/>
-      <c r="AQ25" s="1"/>
+      <c r="AM25" s="1"/>
+      <c r="AN25" s="25"/>
+      <c r="AO25" s="25"/>
+      <c r="AP25" s="25"/>
+      <c r="AQ25" s="4"/>
       <c r="AR25" s="1"/>
-      <c r="AS25" s="1"/>
-      <c r="AT25" s="1"/>
+      <c r="AS25" s="4"/>
+      <c r="AT25" s="4"/>
       <c r="AU25" s="1"/>
-      <c r="AV25" s="1"/>
-      <c r="AW25" s="1"/>
+      <c r="AV25" s="4"/>
+      <c r="AW25" s="25"/>
       <c r="AX25" s="1"/>
     </row>
     <row r="26" spans="1:50">
@@ -1721,7 +1880,7 @@
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
-      <c r="W26" s="4"/>
+      <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
@@ -1736,17 +1895,17 @@
       <c r="AI26" s="1"/>
       <c r="AJ26" s="1"/>
       <c r="AK26" s="1"/>
-      <c r="AL26" s="1"/>
+      <c r="AL26" s="4"/>
       <c r="AM26" s="1"/>
-      <c r="AN26" s="1"/>
+      <c r="AN26" s="4"/>
       <c r="AO26" s="1"/>
-      <c r="AP26" s="1"/>
-      <c r="AQ26" s="4"/>
-      <c r="AR26" s="1"/>
+      <c r="AP26" s="4"/>
+      <c r="AQ26" s="1"/>
+      <c r="AR26" s="4"/>
       <c r="AS26" s="1"/>
       <c r="AT26" s="1"/>
-      <c r="AU26" s="1"/>
-      <c r="AV26" s="1"/>
+      <c r="AU26" s="4"/>
+      <c r="AV26" s="4"/>
       <c r="AW26" s="1"/>
       <c r="AX26" s="1"/>
     </row>
@@ -1768,20 +1927,20 @@
       <c r="O27" s="1"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
-      <c r="R27" s="1"/>
+      <c r="R27" s="4"/>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
-      <c r="Y27" s="4"/>
+      <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
-      <c r="AE27" s="1"/>
+      <c r="AE27" s="4"/>
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
       <c r="AH27" s="1"/>
@@ -1789,15 +1948,15 @@
       <c r="AJ27" s="1"/>
       <c r="AK27" s="1"/>
       <c r="AL27" s="1"/>
-      <c r="AM27" s="1"/>
-      <c r="AN27" s="1"/>
-      <c r="AO27" s="4"/>
-      <c r="AP27" s="4"/>
+      <c r="AM27" s="5"/>
+      <c r="AN27" s="5"/>
+      <c r="AO27" s="1"/>
+      <c r="AP27" s="1"/>
       <c r="AQ27" s="1"/>
       <c r="AR27" s="4"/>
-      <c r="AS27" s="1"/>
+      <c r="AS27" s="4"/>
       <c r="AT27" s="1"/>
-      <c r="AU27" s="1"/>
+      <c r="AU27" s="4"/>
       <c r="AV27" s="1"/>
       <c r="AW27" s="1"/>
       <c r="AX27" s="1"/>
@@ -1815,38 +1974,38 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-      <c r="M28" s="4"/>
+      <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
+      <c r="S28" s="4"/>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="1"/>
       <c r="W28" s="4"/>
       <c r="X28" s="1"/>
-      <c r="Y28" s="4"/>
+      <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
-      <c r="AF28" s="1"/>
+      <c r="AF28" s="41"/>
       <c r="AG28" s="1"/>
       <c r="AH28" s="1"/>
       <c r="AI28" s="1"/>
       <c r="AJ28" s="1"/>
-      <c r="AK28" s="1"/>
-      <c r="AL28" s="1"/>
-      <c r="AM28" s="1"/>
-      <c r="AN28" s="1"/>
-      <c r="AO28" s="4"/>
-      <c r="AP28" s="4"/>
+      <c r="AK28" s="24"/>
+      <c r="AL28" s="42"/>
+      <c r="AM28" s="8"/>
+      <c r="AN28" s="9"/>
+      <c r="AO28" s="19"/>
+      <c r="AP28" s="43"/>
       <c r="AQ28" s="4"/>
-      <c r="AR28" s="1"/>
+      <c r="AR28" s="4"/>
       <c r="AS28" s="1"/>
       <c r="AT28" s="1"/>
       <c r="AU28" s="1"/>
@@ -1864,40 +2023,40 @@
       <c r="G29" s="1"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="1"/>
+      <c r="J29" s="4"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="4"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="1"/>
       <c r="T29" s="4"/>
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
       <c r="X29" s="1"/>
-      <c r="Y29" s="4"/>
+      <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
-      <c r="AA29" s="4"/>
+      <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
-      <c r="AF29" s="1"/>
-      <c r="AG29" s="1"/>
+      <c r="AF29" s="10"/>
+      <c r="AG29" s="34"/>
       <c r="AH29" s="1"/>
       <c r="AI29" s="1"/>
       <c r="AJ29" s="1"/>
-      <c r="AK29" s="1"/>
-      <c r="AL29" s="1"/>
-      <c r="AM29" s="1"/>
-      <c r="AN29" s="4"/>
-      <c r="AO29" s="4"/>
-      <c r="AP29" s="1"/>
-      <c r="AQ29" s="4"/>
+      <c r="AK29" s="24"/>
+      <c r="AL29" s="18"/>
+      <c r="AM29" s="12"/>
+      <c r="AN29" s="12"/>
+      <c r="AO29" s="12"/>
+      <c r="AP29" s="9"/>
+      <c r="AQ29" s="1"/>
       <c r="AR29" s="1"/>
       <c r="AS29" s="1"/>
       <c r="AT29" s="1"/>
@@ -1912,62 +2071,62 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="3"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="44"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="4"/>
+      <c r="N30" s="1"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
-      <c r="Y30" s="7"/>
-      <c r="Z30" s="7"/>
-      <c r="AA30" s="7"/>
+      <c r="Y30" s="33"/>
+      <c r="Z30" s="33"/>
+      <c r="AA30" s="33"/>
       <c r="AB30" s="1"/>
       <c r="AC30" s="3"/>
       <c r="AD30" s="1"/>
-      <c r="AE30" s="1"/>
-      <c r="AF30" s="1"/>
-      <c r="AG30" s="1"/>
+      <c r="AE30" s="24"/>
+      <c r="AF30" s="42"/>
+      <c r="AG30" s="34"/>
       <c r="AH30" s="1"/>
       <c r="AI30" s="1"/>
       <c r="AJ30" s="1"/>
       <c r="AK30" s="1"/>
-      <c r="AL30" s="1"/>
-      <c r="AM30" s="4"/>
-      <c r="AN30" s="1"/>
-      <c r="AO30" s="4"/>
-      <c r="AP30" s="4"/>
-      <c r="AQ30" s="4"/>
+      <c r="AL30" s="14"/>
+      <c r="AM30" s="12"/>
+      <c r="AN30" s="12"/>
+      <c r="AO30" s="12"/>
+      <c r="AP30" s="19"/>
+      <c r="AQ30" s="39"/>
       <c r="AR30" s="1"/>
-      <c r="AS30" s="4"/>
+      <c r="AS30" s="1"/>
       <c r="AT30" s="1"/>
-      <c r="AU30" s="1"/>
+      <c r="AU30" s="4"/>
       <c r="AV30" s="1"/>
-      <c r="AW30" s="1"/>
+      <c r="AW30" s="4"/>
       <c r="AX30" s="1"/>
     </row>
     <row r="31" spans="1:50">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="3"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="45"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -1976,34 +2135,34 @@
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
       <c r="T31" s="4"/>
       <c r="U31" s="1"/>
       <c r="V31" s="4"/>
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
-      <c r="Y31" s="7"/>
-      <c r="Z31" s="7"/>
-      <c r="AA31" s="7"/>
+      <c r="Y31" s="33"/>
+      <c r="Z31" s="33"/>
+      <c r="AA31" s="33"/>
       <c r="AB31" s="1"/>
       <c r="AC31" s="3"/>
-      <c r="AD31" s="1"/>
-      <c r="AE31" s="1"/>
-      <c r="AF31" s="1"/>
-      <c r="AG31" s="1"/>
+      <c r="AD31" s="4"/>
+      <c r="AE31" s="24"/>
+      <c r="AF31" s="42"/>
+      <c r="AG31" s="34"/>
       <c r="AH31" s="1"/>
       <c r="AI31" s="1"/>
       <c r="AJ31" s="1"/>
       <c r="AK31" s="1"/>
-      <c r="AL31" s="1"/>
-      <c r="AM31" s="1"/>
-      <c r="AN31" s="4"/>
-      <c r="AO31" s="1"/>
-      <c r="AP31" s="1"/>
-      <c r="AQ31" s="4"/>
-      <c r="AR31" s="4"/>
-      <c r="AS31" s="4"/>
+      <c r="AL31" s="27"/>
+      <c r="AM31" s="18"/>
+      <c r="AN31" s="12"/>
+      <c r="AO31" s="12"/>
+      <c r="AP31" s="19"/>
+      <c r="AQ31" s="34"/>
+      <c r="AR31" s="1"/>
+      <c r="AS31" s="1"/>
       <c r="AT31" s="1"/>
       <c r="AU31" s="1"/>
       <c r="AV31" s="1"/>
@@ -2014,50 +2173,50 @@
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
       <c r="I32" s="1"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="4"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="1"/>
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
-      <c r="Y32" s="7"/>
-      <c r="Z32" s="7"/>
-      <c r="AA32" s="7"/>
+      <c r="Y32" s="33"/>
+      <c r="Z32" s="33"/>
+      <c r="AA32" s="33"/>
       <c r="AB32" s="3"/>
       <c r="AC32" s="3"/>
       <c r="AD32" s="3"/>
-      <c r="AE32" s="1"/>
-      <c r="AF32" s="1"/>
-      <c r="AG32" s="1"/>
+      <c r="AE32" s="24"/>
+      <c r="AF32" s="42"/>
+      <c r="AG32" s="34"/>
       <c r="AH32" s="1"/>
       <c r="AI32" s="1"/>
       <c r="AJ32" s="1"/>
       <c r="AK32" s="1"/>
-      <c r="AL32" s="1"/>
-      <c r="AM32" s="1"/>
-      <c r="AN32" s="1"/>
-      <c r="AO32" s="1"/>
-      <c r="AP32" s="1"/>
-      <c r="AQ32" s="1"/>
+      <c r="AL32" s="24"/>
+      <c r="AM32" s="18"/>
+      <c r="AN32" s="12"/>
+      <c r="AO32" s="12"/>
+      <c r="AP32" s="19"/>
+      <c r="AQ32" s="34"/>
       <c r="AR32" s="1"/>
-      <c r="AS32" s="4"/>
-      <c r="AT32" s="4"/>
-      <c r="AU32" s="4"/>
+      <c r="AS32" s="1"/>
+      <c r="AT32" s="1"/>
+      <c r="AU32" s="1"/>
       <c r="AV32" s="1"/>
       <c r="AW32" s="1"/>
       <c r="AX32" s="1"/>
@@ -2065,49 +2224,49 @@
     <row r="33" spans="1:50">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="34"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="41"/>
       <c r="N33" s="1"/>
-      <c r="O33" s="4"/>
+      <c r="O33" s="1"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="4"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
-      <c r="Y33" s="7"/>
-      <c r="Z33" s="7"/>
-      <c r="AA33" s="7"/>
-      <c r="AB33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="33"/>
+      <c r="Z33" s="33"/>
+      <c r="AA33" s="33"/>
+      <c r="AB33" s="1"/>
       <c r="AC33" s="3"/>
       <c r="AD33" s="1"/>
-      <c r="AE33" s="1"/>
-      <c r="AF33" s="1"/>
-      <c r="AG33" s="1"/>
+      <c r="AE33" s="24"/>
+      <c r="AF33" s="42"/>
+      <c r="AG33" s="34"/>
       <c r="AH33" s="1"/>
       <c r="AI33" s="1"/>
       <c r="AJ33" s="1"/>
       <c r="AK33" s="1"/>
-      <c r="AL33" s="1"/>
-      <c r="AM33" s="1"/>
-      <c r="AN33" s="1"/>
-      <c r="AO33" s="1"/>
-      <c r="AP33" s="1"/>
-      <c r="AQ33" s="1"/>
-      <c r="AR33" s="4"/>
-      <c r="AS33" s="4"/>
+      <c r="AL33" s="24"/>
+      <c r="AM33" s="21"/>
+      <c r="AN33" s="12"/>
+      <c r="AO33" s="12"/>
+      <c r="AP33" s="15"/>
+      <c r="AQ33" s="34"/>
+      <c r="AR33" s="1"/>
+      <c r="AS33" s="1"/>
       <c r="AT33" s="1"/>
       <c r="AU33" s="1"/>
       <c r="AV33" s="1"/>
@@ -2117,47 +2276,47 @@
     <row r="34" spans="1:50">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="4"/>
       <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="34"/>
+      <c r="O34" s="4"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
-      <c r="W34" s="1"/>
-      <c r="X34" s="1"/>
-      <c r="Y34" s="1"/>
-      <c r="Z34" s="1"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4"/>
       <c r="AA34" s="3"/>
       <c r="AB34" s="3"/>
       <c r="AC34" s="1"/>
       <c r="AD34" s="3"/>
-      <c r="AE34" s="1"/>
-      <c r="AF34" s="1"/>
-      <c r="AG34" s="1"/>
+      <c r="AE34" s="24"/>
+      <c r="AF34" s="42"/>
+      <c r="AG34" s="34"/>
       <c r="AH34" s="1"/>
       <c r="AI34" s="1"/>
       <c r="AJ34" s="1"/>
       <c r="AK34" s="1"/>
       <c r="AL34" s="1"/>
-      <c r="AM34" s="1"/>
-      <c r="AN34" s="1"/>
-      <c r="AO34" s="1"/>
-      <c r="AP34" s="4"/>
-      <c r="AQ34" s="4"/>
+      <c r="AM34" s="27"/>
+      <c r="AN34" s="21"/>
+      <c r="AO34" s="15"/>
+      <c r="AP34" s="31"/>
+      <c r="AQ34" s="1"/>
       <c r="AR34" s="1"/>
       <c r="AS34" s="1"/>
       <c r="AT34" s="1"/>
@@ -2170,26 +2329,26 @@
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="34"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="39"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="4"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
       <c r="U35" s="4"/>
-      <c r="V35" s="4"/>
-      <c r="W35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="4"/>
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
       <c r="Z35" s="3"/>
@@ -2197,17 +2356,17 @@
       <c r="AB35" s="3"/>
       <c r="AC35" s="3"/>
       <c r="AD35" s="1"/>
-      <c r="AE35" s="3"/>
-      <c r="AF35" s="1"/>
-      <c r="AG35" s="1"/>
+      <c r="AE35" s="46"/>
+      <c r="AF35" s="42"/>
+      <c r="AG35" s="34"/>
       <c r="AH35" s="1"/>
       <c r="AI35" s="1"/>
       <c r="AJ35" s="1"/>
       <c r="AK35" s="1"/>
       <c r="AL35" s="1"/>
       <c r="AM35" s="1"/>
-      <c r="AN35" s="1"/>
-      <c r="AO35" s="1"/>
+      <c r="AN35" s="26"/>
+      <c r="AO35" s="26"/>
       <c r="AP35" s="1"/>
       <c r="AQ35" s="1"/>
       <c r="AR35" s="1"/>
@@ -2220,27 +2379,27 @@
     </row>
     <row r="36" spans="1:50">
       <c r="A36" s="1"/>
-      <c r="B36" s="4"/>
+      <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
       <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="34"/>
       <c r="O36" s="1"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
@@ -2251,7 +2410,7 @@
       <c r="AD36" s="3"/>
       <c r="AE36" s="1"/>
       <c r="AF36" s="1"/>
-      <c r="AG36" s="4"/>
+      <c r="AG36" s="1"/>
       <c r="AH36" s="1"/>
       <c r="AI36" s="1"/>
       <c r="AJ36" s="1"/>
@@ -2259,62 +2418,62 @@
       <c r="AL36" s="1"/>
       <c r="AM36" s="1"/>
       <c r="AN36" s="1"/>
-      <c r="AO36" s="1"/>
-      <c r="AP36" s="1"/>
-      <c r="AQ36" s="1"/>
+      <c r="AO36" s="5"/>
+      <c r="AP36" s="5"/>
+      <c r="AQ36" s="5"/>
       <c r="AR36" s="1"/>
       <c r="AS36" s="1"/>
       <c r="AT36" s="1"/>
       <c r="AU36" s="1"/>
       <c r="AV36" s="1"/>
-      <c r="AW36" s="4"/>
+      <c r="AW36" s="1"/>
       <c r="AX36" s="1"/>
     </row>
     <row r="37" spans="1:50">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="4"/>
+      <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="4"/>
       <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
+      <c r="P37" s="4"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
       <c r="U37" s="1"/>
       <c r="V37" s="3"/>
-      <c r="W37" s="1"/>
+      <c r="W37" s="4"/>
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
-      <c r="Z37" s="1"/>
+      <c r="Z37" s="4"/>
       <c r="AA37" s="1"/>
       <c r="AB37" s="3"/>
       <c r="AC37" s="3"/>
       <c r="AD37" s="3"/>
       <c r="AE37" s="1"/>
       <c r="AF37" s="1"/>
-      <c r="AG37" s="1"/>
-      <c r="AH37" s="1"/>
-      <c r="AI37" s="1"/>
-      <c r="AJ37" s="1"/>
+      <c r="AG37" s="5"/>
+      <c r="AH37" s="5"/>
+      <c r="AI37" s="5"/>
+      <c r="AJ37" s="5"/>
       <c r="AK37" s="1"/>
       <c r="AL37" s="1"/>
       <c r="AM37" s="1"/>
-      <c r="AN37" s="1"/>
-      <c r="AO37" s="1"/>
-      <c r="AP37" s="1"/>
-      <c r="AQ37" s="1"/>
-      <c r="AR37" s="1"/>
+      <c r="AN37" s="24"/>
+      <c r="AO37" s="8"/>
+      <c r="AP37" s="9"/>
+      <c r="AQ37" s="10"/>
+      <c r="AR37" s="34"/>
       <c r="AS37" s="1"/>
       <c r="AT37" s="1"/>
       <c r="AU37" s="1"/>
@@ -2328,15 +2487,15 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="4"/>
       <c r="O38" s="4"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
@@ -2346,7 +2505,7 @@
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
-      <c r="X38" s="1"/>
+      <c r="X38" s="4"/>
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
       <c r="AA38" s="1"/>
@@ -2354,19 +2513,19 @@
       <c r="AC38" s="3"/>
       <c r="AD38" s="1"/>
       <c r="AE38" s="3"/>
-      <c r="AF38" s="1"/>
-      <c r="AG38" s="1"/>
-      <c r="AH38" s="1"/>
-      <c r="AI38" s="1"/>
-      <c r="AJ38" s="1"/>
-      <c r="AK38" s="1"/>
+      <c r="AF38" s="24"/>
+      <c r="AG38" s="8"/>
+      <c r="AH38" s="9"/>
+      <c r="AI38" s="9"/>
+      <c r="AJ38" s="10"/>
+      <c r="AK38" s="34"/>
       <c r="AL38" s="1"/>
       <c r="AM38" s="3"/>
-      <c r="AN38" s="1"/>
-      <c r="AO38" s="1"/>
-      <c r="AP38" s="1"/>
-      <c r="AQ38" s="1"/>
-      <c r="AR38" s="1"/>
+      <c r="AN38" s="24"/>
+      <c r="AO38" s="21"/>
+      <c r="AP38" s="14"/>
+      <c r="AQ38" s="19"/>
+      <c r="AR38" s="34"/>
       <c r="AS38" s="1"/>
       <c r="AT38" s="1"/>
       <c r="AU38" s="1"/>
@@ -2379,21 +2538,21 @@
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="4"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="34"/>
+      <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
+      <c r="S39" s="4"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
@@ -2406,17 +2565,17 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-      <c r="AF39" s="1"/>
-      <c r="AG39" s="1"/>
-      <c r="AH39" s="1"/>
-      <c r="AI39" s="1"/>
-      <c r="AJ39" s="1"/>
+      <c r="AF39" s="24"/>
+      <c r="AG39" s="21"/>
+      <c r="AH39" s="14"/>
+      <c r="AI39" s="14"/>
+      <c r="AJ39" s="14"/>
       <c r="AK39" s="1"/>
       <c r="AL39" s="3"/>
       <c r="AM39" s="3"/>
       <c r="AN39" s="3"/>
-      <c r="AO39" s="3"/>
-      <c r="AP39" s="1"/>
+      <c r="AO39" s="47"/>
+      <c r="AP39" s="26"/>
       <c r="AQ39" s="1"/>
       <c r="AR39" s="3"/>
       <c r="AS39" s="3"/>
@@ -2430,20 +2589,20 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="34"/>
+      <c r="O40" s="1"/>
       <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
+      <c r="Q40" s="4"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
@@ -2459,18 +2618,18 @@
       <c r="AD40" s="1"/>
       <c r="AE40" s="3"/>
       <c r="AF40" s="3"/>
-      <c r="AG40" s="3"/>
-      <c r="AH40" s="3"/>
-      <c r="AI40" s="1"/>
-      <c r="AJ40" s="1"/>
+      <c r="AG40" s="47"/>
+      <c r="AH40" s="47"/>
+      <c r="AI40" s="26"/>
+      <c r="AJ40" s="26"/>
       <c r="AK40" s="1"/>
       <c r="AL40" s="3"/>
       <c r="AM40" s="3"/>
       <c r="AN40" s="3"/>
       <c r="AO40" s="3"/>
-      <c r="AP40" s="7"/>
-      <c r="AQ40" s="7"/>
-      <c r="AR40" s="7"/>
+      <c r="AP40" s="33"/>
+      <c r="AQ40" s="33"/>
+      <c r="AR40" s="33"/>
       <c r="AS40" s="3"/>
       <c r="AT40" s="3"/>
       <c r="AU40" s="3"/>
@@ -2484,18 +2643,18 @@
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="4"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="34"/>
       <c r="O41" s="1"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
@@ -2520,8 +2679,8 @@
       <c r="AM41" s="1"/>
       <c r="AN41" s="1"/>
       <c r="AO41" s="1"/>
-      <c r="AP41" s="7"/>
-      <c r="AQ41" s="7"/>
+      <c r="AP41" s="33"/>
+      <c r="AQ41" s="33"/>
       <c r="AR41" s="3"/>
       <c r="AS41" s="1"/>
       <c r="AT41" s="1"/>
@@ -2534,22 +2693,22 @@
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="34"/>
       <c r="O42" s="1"/>
-      <c r="P42" s="4"/>
+      <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
+      <c r="S42" s="4"/>
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
@@ -2573,7 +2732,7 @@
       <c r="AN42" s="1"/>
       <c r="AO42" s="3"/>
       <c r="AP42" s="3"/>
-      <c r="AQ42" s="7"/>
+      <c r="AQ42" s="33"/>
       <c r="AR42" s="3"/>
       <c r="AS42" s="3"/>
       <c r="AT42" s="3"/>
@@ -2588,22 +2747,22 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="26"/>
       <c r="N43" s="1"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="4"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
-      <c r="U43" s="4"/>
+      <c r="U43" s="1"/>
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
@@ -2645,18 +2804,18 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
-      <c r="S44" s="4"/>
+      <c r="S44" s="1"/>
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
-      <c r="V44" s="4"/>
+      <c r="V44" s="1"/>
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
@@ -2692,18 +2851,18 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="4"/>
+      <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="4"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
@@ -2750,19 +2909,19 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="4"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
       <c r="S46" s="1"/>
-      <c r="T46" s="4"/>
+      <c r="T46" s="1"/>
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
-      <c r="X46" s="4"/>
+      <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
       <c r="AA46" s="1"/>
@@ -2773,7 +2932,7 @@
       <c r="AF46" s="1"/>
       <c r="AG46" s="1"/>
       <c r="AH46" s="1"/>
-      <c r="AI46" s="4"/>
+      <c r="AI46" s="1"/>
       <c r="AJ46" s="1"/>
       <c r="AK46" s="1"/>
       <c r="AL46" s="1"/>
@@ -2803,24 +2962,24 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
-      <c r="P47" s="4"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
-      <c r="R47" s="4"/>
+      <c r="R47" s="1"/>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
-      <c r="Y47" s="4"/>
+      <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
       <c r="AC47" s="1"/>
-      <c r="AD47" s="4"/>
+      <c r="AD47" s="1"/>
       <c r="AE47" s="1"/>
       <c r="AF47" s="1"/>
       <c r="AG47" s="1"/>
@@ -2856,11 +3015,11 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
-      <c r="N48" s="4"/>
+      <c r="N48" s="1"/>
       <c r="O48" s="1"/>
-      <c r="P48" s="4"/>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="4"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
@@ -2872,14 +3031,14 @@
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
       <c r="AC48" s="1"/>
-      <c r="AD48" s="1"/>
+      <c r="AD48" s="5"/>
       <c r="AE48" s="1"/>
-      <c r="AF48" s="1"/>
-      <c r="AG48" s="1"/>
-      <c r="AH48" s="1"/>
-      <c r="AI48" s="1"/>
-      <c r="AJ48" s="1"/>
-      <c r="AK48" s="1"/>
+      <c r="AF48" s="5"/>
+      <c r="AG48" s="5"/>
+      <c r="AH48" s="5"/>
+      <c r="AI48" s="5"/>
+      <c r="AJ48" s="5"/>
+      <c r="AK48" s="5"/>
       <c r="AL48" s="1"/>
       <c r="AM48" s="1"/>
       <c r="AN48" s="1"/>
@@ -2906,7 +3065,7 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
-      <c r="L49" s="4"/>
+      <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
@@ -2923,16 +3082,16 @@
       <c r="Z49" s="1"/>
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
-      <c r="AC49" s="1"/>
-      <c r="AD49" s="1"/>
-      <c r="AE49" s="1"/>
-      <c r="AF49" s="1"/>
-      <c r="AG49" s="1"/>
-      <c r="AH49" s="1"/>
-      <c r="AI49" s="1"/>
-      <c r="AJ49" s="1"/>
-      <c r="AK49" s="1"/>
-      <c r="AL49" s="1"/>
+      <c r="AC49" s="24"/>
+      <c r="AD49" s="8"/>
+      <c r="AE49" s="12"/>
+      <c r="AF49" s="9"/>
+      <c r="AG49" s="9"/>
+      <c r="AH49" s="9"/>
+      <c r="AI49" s="9"/>
+      <c r="AJ49" s="9"/>
+      <c r="AK49" s="10"/>
+      <c r="AL49" s="34"/>
       <c r="AM49" s="1"/>
       <c r="AN49" s="1"/>
       <c r="AO49" s="1"/>
@@ -2960,8 +3119,8 @@
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
-      <c r="N50" s="4"/>
-      <c r="O50" s="4"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
@@ -2975,16 +3134,16 @@
       <c r="Z50" s="1"/>
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
-      <c r="AC50" s="1"/>
-      <c r="AD50" s="1"/>
-      <c r="AE50" s="1"/>
-      <c r="AF50" s="4"/>
-      <c r="AG50" s="1"/>
-      <c r="AH50" s="1"/>
-      <c r="AI50" s="1"/>
-      <c r="AJ50" s="1"/>
-      <c r="AK50" s="1"/>
-      <c r="AL50" s="4"/>
+      <c r="AC50" s="24"/>
+      <c r="AD50" s="18"/>
+      <c r="AE50" s="12"/>
+      <c r="AF50" s="12"/>
+      <c r="AG50" s="12"/>
+      <c r="AH50" s="12"/>
+      <c r="AI50" s="12"/>
+      <c r="AJ50" s="12"/>
+      <c r="AK50" s="19"/>
+      <c r="AL50" s="34"/>
       <c r="AM50" s="1"/>
       <c r="AN50" s="1"/>
       <c r="AO50" s="1"/>

--- a/game_map_1.xlsx
+++ b/game_map_1.xlsx
@@ -51,7 +51,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF548235"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -63,7 +63,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FF548235"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -205,19 +205,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -230,29 +231,33 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -583,15 +588,15 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
-      <c r="Z1" s="2"/>
+      <c r="Z1" s="4"/>
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
       <c r="AD1" s="2"/>
       <c r="AE1" s="2"/>
       <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4"/>
       <c r="AI1" s="2"/>
       <c r="AJ1" s="2"/>
       <c r="AK1" s="2"/>
@@ -600,13 +605,13 @@
       <c r="AN1" s="2"/>
       <c r="AO1" s="2"/>
       <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
+      <c r="AQ1" s="4"/>
       <c r="AR1" s="2"/>
       <c r="AS1" s="2"/>
       <c r="AT1" s="2"/>
       <c r="AU1" s="2"/>
       <c r="AV1" s="2"/>
-      <c r="AW1" s="2"/>
+      <c r="AW1" s="4"/>
       <c r="AX1" s="2"/>
     </row>
     <row r="2" spans="1:50">
@@ -653,9 +658,9 @@
       <c r="AO2" s="2"/>
       <c r="AP2" s="2"/>
       <c r="AQ2" s="2"/>
-      <c r="AR2" s="2"/>
-      <c r="AS2" s="2"/>
-      <c r="AT2" s="2"/>
+      <c r="AR2" s="4"/>
+      <c r="AS2" s="4"/>
+      <c r="AT2" s="4"/>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2"/>
       <c r="AW2" s="2"/>
@@ -684,14 +689,14 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
-      <c r="W3" s="4"/>
+      <c r="W3" s="1"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
+      <c r="Z3" s="4"/>
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
+      <c r="AD3" s="4"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
@@ -748,9 +753,9 @@
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="1"/>
-      <c r="AI4" s="1"/>
+      <c r="AI4" s="4"/>
       <c r="AJ4" s="5"/>
-      <c r="AK4" s="6"/>
+      <c r="AK4" s="5"/>
       <c r="AL4" s="6"/>
       <c r="AM4" s="6"/>
       <c r="AN4" s="6"/>
@@ -798,8 +803,8 @@
       <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="1"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
       <c r="AI5" s="7"/>
       <c r="AJ5" s="8"/>
       <c r="AK5" s="9"/>
@@ -811,7 +816,7 @@
       <c r="AQ5" s="2"/>
       <c r="AR5" s="2"/>
       <c r="AS5" s="2"/>
-      <c r="AT5" s="2"/>
+      <c r="AT5" s="4"/>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2"/>
@@ -844,21 +849,21 @@
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
+      <c r="AA6" s="4"/>
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
       <c r="AF6" s="6"/>
       <c r="AG6" s="6"/>
-      <c r="AH6" s="7"/>
+      <c r="AH6" s="12"/>
       <c r="AI6" s="8"/>
-      <c r="AJ6" s="12"/>
-      <c r="AK6" s="12"/>
-      <c r="AL6" s="12"/>
-      <c r="AM6" s="12"/>
-      <c r="AN6" s="12"/>
-      <c r="AO6" s="12"/>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="13"/>
+      <c r="AL6" s="13"/>
+      <c r="AM6" s="13"/>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="13"/>
       <c r="AP6" s="9"/>
       <c r="AQ6" s="2"/>
       <c r="AR6" s="6"/>
@@ -897,26 +902,26 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
+      <c r="AB7" s="4"/>
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
-      <c r="AE7" s="13"/>
+      <c r="AE7" s="14"/>
       <c r="AF7" s="8"/>
       <c r="AG7" s="9"/>
       <c r="AH7" s="9"/>
-      <c r="AI7" s="14"/>
-      <c r="AJ7" s="12"/>
-      <c r="AK7" s="12"/>
-      <c r="AL7" s="12"/>
-      <c r="AM7" s="12"/>
-      <c r="AN7" s="12"/>
-      <c r="AO7" s="12"/>
-      <c r="AP7" s="15"/>
-      <c r="AQ7" s="16"/>
+      <c r="AI7" s="15"/>
+      <c r="AJ7" s="13"/>
+      <c r="AK7" s="13"/>
+      <c r="AL7" s="13"/>
+      <c r="AM7" s="13"/>
+      <c r="AN7" s="13"/>
+      <c r="AO7" s="13"/>
+      <c r="AP7" s="16"/>
+      <c r="AQ7" s="17"/>
       <c r="AR7" s="8"/>
       <c r="AS7" s="9"/>
       <c r="AT7" s="10"/>
-      <c r="AU7" s="17"/>
+      <c r="AU7" s="18"/>
       <c r="AV7" s="2"/>
       <c r="AW7" s="1"/>
       <c r="AX7" s="1"/>
@@ -952,23 +957,23 @@
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
-      <c r="AE8" s="13"/>
-      <c r="AF8" s="18"/>
-      <c r="AG8" s="12"/>
-      <c r="AH8" s="19"/>
-      <c r="AI8" s="20"/>
-      <c r="AJ8" s="21"/>
-      <c r="AK8" s="14"/>
-      <c r="AL8" s="14"/>
-      <c r="AM8" s="14"/>
-      <c r="AN8" s="14"/>
-      <c r="AO8" s="15"/>
-      <c r="AP8" s="22"/>
-      <c r="AQ8" s="23"/>
-      <c r="AR8" s="18"/>
-      <c r="AS8" s="12"/>
-      <c r="AT8" s="19"/>
-      <c r="AU8" s="17"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="19"/>
+      <c r="AG8" s="13"/>
+      <c r="AH8" s="20"/>
+      <c r="AI8" s="21"/>
+      <c r="AJ8" s="22"/>
+      <c r="AK8" s="15"/>
+      <c r="AL8" s="15"/>
+      <c r="AM8" s="15"/>
+      <c r="AN8" s="15"/>
+      <c r="AO8" s="16"/>
+      <c r="AP8" s="23"/>
+      <c r="AQ8" s="24"/>
+      <c r="AR8" s="19"/>
+      <c r="AS8" s="13"/>
+      <c r="AT8" s="20"/>
+      <c r="AU8" s="18"/>
       <c r="AV8" s="2"/>
       <c r="AW8" s="2"/>
       <c r="AX8" s="1"/>
@@ -1004,10 +1009,10 @@
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
-      <c r="AE9" s="24"/>
-      <c r="AF9" s="21"/>
-      <c r="AG9" s="14"/>
-      <c r="AH9" s="12"/>
+      <c r="AE9" s="25"/>
+      <c r="AF9" s="22"/>
+      <c r="AG9" s="15"/>
+      <c r="AH9" s="13"/>
       <c r="AI9" s="9"/>
       <c r="AJ9" s="9"/>
       <c r="AK9" s="9"/>
@@ -1017,10 +1022,10 @@
       <c r="AO9" s="9"/>
       <c r="AP9" s="9"/>
       <c r="AQ9" s="9"/>
-      <c r="AR9" s="12"/>
-      <c r="AS9" s="14"/>
-      <c r="AT9" s="15"/>
-      <c r="AU9" s="17"/>
+      <c r="AR9" s="13"/>
+      <c r="AS9" s="15"/>
+      <c r="AT9" s="16"/>
+      <c r="AU9" s="18"/>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2"/>
       <c r="AX9" s="2"/>
@@ -1049,29 +1054,29 @@
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
+      <c r="X10" s="26"/>
       <c r="Y10" s="1"/>
-      <c r="Z10" s="25"/>
-      <c r="AA10" s="25"/>
-      <c r="AB10" s="2"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="4"/>
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
-      <c r="AF10" s="26"/>
-      <c r="AG10" s="27"/>
-      <c r="AH10" s="18"/>
-      <c r="AI10" s="12"/>
-      <c r="AJ10" s="12"/>
-      <c r="AK10" s="12"/>
-      <c r="AL10" s="12"/>
-      <c r="AM10" s="12"/>
-      <c r="AN10" s="12"/>
-      <c r="AO10" s="12"/>
-      <c r="AP10" s="12"/>
-      <c r="AQ10" s="12"/>
-      <c r="AR10" s="19"/>
-      <c r="AS10" s="28"/>
-      <c r="AT10" s="29"/>
+      <c r="AF10" s="27"/>
+      <c r="AG10" s="28"/>
+      <c r="AH10" s="19"/>
+      <c r="AI10" s="13"/>
+      <c r="AJ10" s="13"/>
+      <c r="AK10" s="13"/>
+      <c r="AL10" s="13"/>
+      <c r="AM10" s="13"/>
+      <c r="AN10" s="13"/>
+      <c r="AO10" s="13"/>
+      <c r="AP10" s="13"/>
+      <c r="AQ10" s="13"/>
+      <c r="AR10" s="20"/>
+      <c r="AS10" s="29"/>
+      <c r="AT10" s="30"/>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2"/>
@@ -1096,7 +1101,7 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-      <c r="S11" s="1"/>
+      <c r="S11" s="26"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
@@ -1105,29 +1110,29 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
+      <c r="AB11" s="4"/>
       <c r="AC11" s="1"/>
-      <c r="AD11" s="25"/>
+      <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
-      <c r="AF11" s="1"/>
-      <c r="AG11" s="24"/>
-      <c r="AH11" s="18"/>
-      <c r="AI11" s="12"/>
-      <c r="AJ11" s="12"/>
-      <c r="AK11" s="12"/>
-      <c r="AL11" s="12"/>
-      <c r="AM11" s="12"/>
-      <c r="AN11" s="12"/>
-      <c r="AO11" s="12"/>
-      <c r="AP11" s="12"/>
-      <c r="AQ11" s="12"/>
-      <c r="AR11" s="19"/>
-      <c r="AS11" s="17"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="31"/>
+      <c r="AH11" s="19"/>
+      <c r="AI11" s="13"/>
+      <c r="AJ11" s="13"/>
+      <c r="AK11" s="13"/>
+      <c r="AL11" s="13"/>
+      <c r="AM11" s="13"/>
+      <c r="AN11" s="13"/>
+      <c r="AO11" s="13"/>
+      <c r="AP11" s="13"/>
+      <c r="AQ11" s="13"/>
+      <c r="AR11" s="20"/>
+      <c r="AS11" s="18"/>
       <c r="AT11" s="2"/>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2"/>
       <c r="AW11" s="2"/>
-      <c r="AX11" s="2"/>
+      <c r="AX11" s="4"/>
     </row>
     <row r="12" spans="1:50">
       <c r="A12" s="3"/>
@@ -1148,7 +1153,7 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
-      <c r="S12" s="1"/>
+      <c r="S12" s="26"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
@@ -1157,25 +1162,25 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="25"/>
-      <c r="AD12" s="25"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
-      <c r="AF12" s="1"/>
+      <c r="AF12" s="4"/>
       <c r="AG12" s="1"/>
-      <c r="AH12" s="12"/>
-      <c r="AI12" s="12"/>
-      <c r="AJ12" s="12"/>
-      <c r="AK12" s="12"/>
-      <c r="AL12" s="12"/>
-      <c r="AM12" s="12"/>
-      <c r="AN12" s="12"/>
-      <c r="AO12" s="12"/>
-      <c r="AP12" s="12"/>
-      <c r="AQ12" s="12"/>
-      <c r="AR12" s="19"/>
-      <c r="AS12" s="17"/>
-      <c r="AT12" s="2"/>
+      <c r="AH12" s="13"/>
+      <c r="AI12" s="13"/>
+      <c r="AJ12" s="13"/>
+      <c r="AK12" s="13"/>
+      <c r="AL12" s="13"/>
+      <c r="AM12" s="13"/>
+      <c r="AN12" s="13"/>
+      <c r="AO12" s="13"/>
+      <c r="AP12" s="13"/>
+      <c r="AQ12" s="13"/>
+      <c r="AR12" s="20"/>
+      <c r="AS12" s="32"/>
+      <c r="AT12" s="4"/>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2"/>
       <c r="AW12" s="2"/>
@@ -1206,27 +1211,27 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
       <c r="AA13" s="1"/>
-      <c r="AB13" s="25"/>
-      <c r="AC13" s="25"/>
-      <c r="AD13" s="25"/>
-      <c r="AE13" s="25"/>
-      <c r="AF13" s="1"/>
-      <c r="AG13" s="1"/>
-      <c r="AH13" s="12"/>
-      <c r="AI13" s="12"/>
-      <c r="AJ13" s="12"/>
-      <c r="AK13" s="12"/>
-      <c r="AL13" s="12"/>
-      <c r="AM13" s="12"/>
-      <c r="AN13" s="12"/>
-      <c r="AO13" s="12"/>
-      <c r="AP13" s="12"/>
-      <c r="AQ13" s="12"/>
-      <c r="AR13" s="19"/>
-      <c r="AS13" s="17"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="13"/>
+      <c r="AI13" s="13"/>
+      <c r="AJ13" s="13"/>
+      <c r="AK13" s="13"/>
+      <c r="AL13" s="13"/>
+      <c r="AM13" s="13"/>
+      <c r="AN13" s="13"/>
+      <c r="AO13" s="13"/>
+      <c r="AP13" s="13"/>
+      <c r="AQ13" s="13"/>
+      <c r="AR13" s="20"/>
+      <c r="AS13" s="18"/>
       <c r="AT13" s="2"/>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2"/>
@@ -1262,26 +1267,26 @@
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
-      <c r="AC14" s="25"/>
-      <c r="AD14" s="1"/>
-      <c r="AE14" s="1"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
       <c r="AF14" s="1"/>
-      <c r="AG14" s="25"/>
-      <c r="AH14" s="12"/>
-      <c r="AI14" s="12"/>
-      <c r="AJ14" s="12"/>
-      <c r="AK14" s="12"/>
-      <c r="AL14" s="12"/>
-      <c r="AM14" s="12"/>
-      <c r="AN14" s="12"/>
-      <c r="AO14" s="12"/>
-      <c r="AP14" s="12"/>
-      <c r="AQ14" s="12"/>
-      <c r="AR14" s="19"/>
-      <c r="AS14" s="17"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="13"/>
+      <c r="AI14" s="13"/>
+      <c r="AJ14" s="13"/>
+      <c r="AK14" s="13"/>
+      <c r="AL14" s="13"/>
+      <c r="AM14" s="13"/>
+      <c r="AN14" s="13"/>
+      <c r="AO14" s="13"/>
+      <c r="AP14" s="13"/>
+      <c r="AQ14" s="13"/>
+      <c r="AR14" s="20"/>
+      <c r="AS14" s="18"/>
       <c r="AT14" s="2"/>
       <c r="AU14" s="2"/>
-      <c r="AV14" s="2"/>
+      <c r="AV14" s="4"/>
       <c r="AW14" s="2"/>
       <c r="AX14" s="2"/>
     </row>
@@ -1304,7 +1309,7 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
-      <c r="S15" s="1"/>
+      <c r="S15" s="26"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
@@ -1314,26 +1319,26 @@
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
-      <c r="AC15" s="25"/>
-      <c r="AD15" s="1"/>
-      <c r="AE15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
       <c r="AF15" s="1"/>
-      <c r="AG15" s="25"/>
-      <c r="AH15" s="12"/>
-      <c r="AI15" s="12"/>
-      <c r="AJ15" s="12"/>
-      <c r="AK15" s="12"/>
-      <c r="AL15" s="12"/>
-      <c r="AM15" s="12"/>
-      <c r="AN15" s="12"/>
-      <c r="AO15" s="12"/>
-      <c r="AP15" s="12"/>
-      <c r="AQ15" s="12"/>
-      <c r="AR15" s="19"/>
-      <c r="AS15" s="17"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="13"/>
+      <c r="AI15" s="13"/>
+      <c r="AJ15" s="13"/>
+      <c r="AK15" s="13"/>
+      <c r="AL15" s="13"/>
+      <c r="AM15" s="13"/>
+      <c r="AN15" s="13"/>
+      <c r="AO15" s="13"/>
+      <c r="AP15" s="13"/>
+      <c r="AQ15" s="13"/>
+      <c r="AR15" s="20"/>
+      <c r="AS15" s="18"/>
       <c r="AT15" s="2"/>
-      <c r="AU15" s="2"/>
-      <c r="AV15" s="2"/>
+      <c r="AU15" s="4"/>
+      <c r="AV15" s="4"/>
       <c r="AW15" s="2"/>
       <c r="AX15" s="2"/>
     </row>
@@ -1355,8 +1360,8 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
@@ -1364,25 +1369,25 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
-      <c r="AA16" s="25"/>
+      <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="25"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
       <c r="AF16" s="1"/>
-      <c r="AG16" s="30"/>
-      <c r="AH16" s="18"/>
-      <c r="AI16" s="12"/>
-      <c r="AJ16" s="12"/>
-      <c r="AK16" s="12"/>
-      <c r="AL16" s="12"/>
-      <c r="AM16" s="12"/>
-      <c r="AN16" s="12"/>
-      <c r="AO16" s="12"/>
-      <c r="AP16" s="12"/>
-      <c r="AQ16" s="12"/>
-      <c r="AR16" s="19"/>
-      <c r="AS16" s="17"/>
+      <c r="AG16" s="31"/>
+      <c r="AH16" s="19"/>
+      <c r="AI16" s="13"/>
+      <c r="AJ16" s="13"/>
+      <c r="AK16" s="13"/>
+      <c r="AL16" s="13"/>
+      <c r="AM16" s="13"/>
+      <c r="AN16" s="13"/>
+      <c r="AO16" s="13"/>
+      <c r="AP16" s="13"/>
+      <c r="AQ16" s="13"/>
+      <c r="AR16" s="20"/>
+      <c r="AS16" s="18"/>
       <c r="AT16" s="2"/>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2"/>
@@ -1407,33 +1412,33 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
-      <c r="R17" s="1"/>
+      <c r="R17" s="26"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
+      <c r="U17" s="26"/>
       <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
+      <c r="W17" s="26"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
-      <c r="AC17" s="25"/>
+      <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
-      <c r="AE17" s="1"/>
-      <c r="AF17" s="5"/>
-      <c r="AG17" s="7"/>
-      <c r="AH17" s="18"/>
-      <c r="AI17" s="12"/>
-      <c r="AJ17" s="12"/>
-      <c r="AK17" s="12"/>
-      <c r="AL17" s="12"/>
-      <c r="AM17" s="12"/>
-      <c r="AN17" s="12"/>
-      <c r="AO17" s="12"/>
-      <c r="AP17" s="12"/>
-      <c r="AQ17" s="12"/>
-      <c r="AR17" s="19"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="33"/>
+      <c r="AG17" s="12"/>
+      <c r="AH17" s="19"/>
+      <c r="AI17" s="13"/>
+      <c r="AJ17" s="13"/>
+      <c r="AK17" s="13"/>
+      <c r="AL17" s="13"/>
+      <c r="AM17" s="13"/>
+      <c r="AN17" s="13"/>
+      <c r="AO17" s="13"/>
+      <c r="AP17" s="13"/>
+      <c r="AQ17" s="13"/>
+      <c r="AR17" s="20"/>
       <c r="AS17" s="11"/>
       <c r="AT17" s="6"/>
       <c r="AU17" s="2"/>
@@ -1458,37 +1463,37 @@
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
       <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
+      <c r="U18" s="26"/>
       <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
+      <c r="W18" s="26"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
-      <c r="AA18" s="1"/>
+      <c r="AA18" s="26"/>
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
-      <c r="AE18" s="24"/>
+      <c r="AE18" s="25"/>
       <c r="AF18" s="8"/>
       <c r="AG18" s="9"/>
-      <c r="AH18" s="12"/>
-      <c r="AI18" s="14"/>
-      <c r="AJ18" s="14"/>
-      <c r="AK18" s="14"/>
-      <c r="AL18" s="14"/>
-      <c r="AM18" s="14"/>
-      <c r="AN18" s="14"/>
-      <c r="AO18" s="14"/>
-      <c r="AP18" s="14"/>
-      <c r="AQ18" s="14"/>
-      <c r="AR18" s="12"/>
+      <c r="AH18" s="13"/>
+      <c r="AI18" s="15"/>
+      <c r="AJ18" s="15"/>
+      <c r="AK18" s="15"/>
+      <c r="AL18" s="15"/>
+      <c r="AM18" s="15"/>
+      <c r="AN18" s="15"/>
+      <c r="AO18" s="15"/>
+      <c r="AP18" s="15"/>
+      <c r="AQ18" s="15"/>
+      <c r="AR18" s="13"/>
       <c r="AS18" s="9"/>
       <c r="AT18" s="10"/>
-      <c r="AU18" s="17"/>
+      <c r="AU18" s="18"/>
       <c r="AV18" s="2"/>
       <c r="AW18" s="2"/>
       <c r="AX18" s="1"/>
@@ -1511,36 +1516,36 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
       <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="26"/>
       <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
+      <c r="Z19" s="26"/>
       <c r="AA19" s="1"/>
-      <c r="AB19" s="25"/>
+      <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
-      <c r="AE19" s="24"/>
-      <c r="AF19" s="18"/>
-      <c r="AG19" s="12"/>
-      <c r="AH19" s="19"/>
-      <c r="AI19" s="31"/>
-      <c r="AJ19" s="27"/>
+      <c r="AE19" s="31"/>
+      <c r="AF19" s="19"/>
+      <c r="AG19" s="13"/>
+      <c r="AH19" s="20"/>
+      <c r="AI19" s="34"/>
+      <c r="AJ19" s="35"/>
       <c r="AK19" s="8"/>
       <c r="AL19" s="9"/>
       <c r="AM19" s="9"/>
       <c r="AN19" s="9"/>
       <c r="AO19" s="9"/>
       <c r="AP19" s="9"/>
-      <c r="AQ19" s="32"/>
-      <c r="AR19" s="18"/>
-      <c r="AS19" s="12"/>
-      <c r="AT19" s="19"/>
-      <c r="AU19" s="17"/>
+      <c r="AQ19" s="36"/>
+      <c r="AR19" s="19"/>
+      <c r="AS19" s="13"/>
+      <c r="AT19" s="20"/>
+      <c r="AU19" s="32"/>
       <c r="AV19" s="2"/>
       <c r="AW19" s="1"/>
       <c r="AX19" s="1"/>
@@ -1559,43 +1564,43 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="33"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
       <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
       <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="4"/>
+      <c r="V20" s="26"/>
+      <c r="W20" s="26"/>
       <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="1"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
       <c r="AB20" s="1"/>
-      <c r="AC20" s="25"/>
+      <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
-      <c r="AE20" s="24"/>
-      <c r="AF20" s="21"/>
-      <c r="AG20" s="14"/>
-      <c r="AH20" s="15"/>
-      <c r="AI20" s="34"/>
-      <c r="AJ20" s="35"/>
-      <c r="AK20" s="18"/>
-      <c r="AL20" s="12"/>
-      <c r="AM20" s="12"/>
-      <c r="AN20" s="12"/>
-      <c r="AO20" s="12"/>
-      <c r="AP20" s="19"/>
-      <c r="AQ20" s="36"/>
-      <c r="AR20" s="21"/>
-      <c r="AS20" s="14"/>
-      <c r="AT20" s="15"/>
-      <c r="AU20" s="37"/>
-      <c r="AV20" s="4"/>
-      <c r="AW20" s="1"/>
-      <c r="AX20" s="25"/>
+      <c r="AE20" s="31"/>
+      <c r="AF20" s="22"/>
+      <c r="AG20" s="15"/>
+      <c r="AH20" s="16"/>
+      <c r="AI20" s="32"/>
+      <c r="AJ20" s="25"/>
+      <c r="AK20" s="19"/>
+      <c r="AL20" s="13"/>
+      <c r="AM20" s="13"/>
+      <c r="AN20" s="13"/>
+      <c r="AO20" s="13"/>
+      <c r="AP20" s="20"/>
+      <c r="AQ20" s="38"/>
+      <c r="AR20" s="22"/>
+      <c r="AS20" s="15"/>
+      <c r="AT20" s="16"/>
+      <c r="AU20" s="32"/>
+      <c r="AV20" s="1"/>
+      <c r="AW20" s="26"/>
+      <c r="AX20" s="1"/>
     </row>
     <row r="21" spans="1:50">
       <c r="A21" s="1"/>
@@ -1610,44 +1615,44 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
       <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
+      <c r="W21" s="26"/>
       <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
+      <c r="Y21" s="4"/>
       <c r="Z21" s="1"/>
-      <c r="AA21" s="1"/>
-      <c r="AB21" s="1"/>
-      <c r="AC21" s="25"/>
+      <c r="AA21" s="26"/>
+      <c r="AB21" s="26"/>
+      <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
-      <c r="AF21" s="26"/>
-      <c r="AG21" s="38"/>
-      <c r="AH21" s="26"/>
-      <c r="AI21" s="1"/>
-      <c r="AJ21" s="24"/>
-      <c r="AK21" s="18"/>
-      <c r="AL21" s="12"/>
-      <c r="AM21" s="12"/>
-      <c r="AN21" s="12"/>
-      <c r="AO21" s="12"/>
-      <c r="AP21" s="19"/>
-      <c r="AQ21" s="39"/>
+      <c r="AF21" s="27"/>
+      <c r="AG21" s="39"/>
+      <c r="AH21" s="39"/>
+      <c r="AI21" s="4"/>
+      <c r="AJ21" s="25"/>
+      <c r="AK21" s="19"/>
+      <c r="AL21" s="13"/>
+      <c r="AM21" s="13"/>
+      <c r="AN21" s="13"/>
+      <c r="AO21" s="13"/>
+      <c r="AP21" s="20"/>
+      <c r="AQ21" s="32"/>
       <c r="AR21" s="40"/>
       <c r="AS21" s="40"/>
-      <c r="AT21" s="40"/>
-      <c r="AU21" s="25"/>
+      <c r="AT21" s="39"/>
+      <c r="AU21" s="4"/>
       <c r="AV21" s="4"/>
       <c r="AW21" s="4"/>
-      <c r="AX21" s="25"/>
+      <c r="AX21" s="26"/>
     </row>
     <row r="22" spans="1:50">
       <c r="A22" s="1"/>
@@ -1662,44 +1667,44 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
-      <c r="M22" s="1"/>
+      <c r="M22" s="26"/>
       <c r="N22" s="1"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
       <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
+      <c r="U22" s="26"/>
       <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
+      <c r="W22" s="26"/>
       <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="1"/>
-      <c r="AB22" s="1"/>
-      <c r="AC22" s="25"/>
+      <c r="Y22" s="26"/>
+      <c r="Z22" s="26"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
       <c r="AF22" s="1"/>
-      <c r="AG22" s="1"/>
-      <c r="AH22" s="1"/>
-      <c r="AI22" s="1"/>
-      <c r="AJ22" s="24"/>
-      <c r="AK22" s="21"/>
-      <c r="AL22" s="14"/>
-      <c r="AM22" s="14"/>
-      <c r="AN22" s="14"/>
-      <c r="AO22" s="14"/>
-      <c r="AP22" s="15"/>
-      <c r="AQ22" s="39"/>
-      <c r="AR22" s="4"/>
-      <c r="AS22" s="4"/>
-      <c r="AT22" s="4"/>
-      <c r="AU22" s="25"/>
-      <c r="AV22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="25"/>
+      <c r="AK22" s="22"/>
+      <c r="AL22" s="15"/>
+      <c r="AM22" s="15"/>
+      <c r="AN22" s="15"/>
+      <c r="AO22" s="15"/>
+      <c r="AP22" s="16"/>
+      <c r="AQ22" s="41"/>
+      <c r="AR22" s="26"/>
+      <c r="AS22" s="26"/>
+      <c r="AT22" s="26"/>
+      <c r="AU22" s="1"/>
+      <c r="AV22" s="26"/>
       <c r="AW22" s="1"/>
-      <c r="AX22" s="25"/>
+      <c r="AX22" s="26"/>
     </row>
     <row r="23" spans="1:50">
       <c r="A23" s="1"/>
@@ -1722,36 +1727,36 @@
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="26"/>
       <c r="Z23" s="1"/>
-      <c r="AA23" s="1"/>
-      <c r="AB23" s="1"/>
-      <c r="AC23" s="25"/>
+      <c r="AA23" s="26"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
-      <c r="AG23" s="1"/>
-      <c r="AH23" s="1"/>
-      <c r="AI23" s="1"/>
-      <c r="AJ23" s="1"/>
-      <c r="AK23" s="26"/>
-      <c r="AL23" s="26"/>
-      <c r="AM23" s="26"/>
-      <c r="AN23" s="26"/>
-      <c r="AO23" s="26"/>
-      <c r="AP23" s="26"/>
-      <c r="AQ23" s="1"/>
-      <c r="AR23" s="4"/>
-      <c r="AS23" s="1"/>
+      <c r="AG23" s="4"/>
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="4"/>
+      <c r="AJ23" s="4"/>
+      <c r="AK23" s="39"/>
+      <c r="AL23" s="27"/>
+      <c r="AM23" s="40"/>
+      <c r="AN23" s="40"/>
+      <c r="AO23" s="27"/>
+      <c r="AP23" s="40"/>
+      <c r="AQ23" s="26"/>
+      <c r="AR23" s="26"/>
+      <c r="AS23" s="26"/>
       <c r="AT23" s="4"/>
-      <c r="AU23" s="25"/>
-      <c r="AV23" s="4"/>
-      <c r="AW23" s="25"/>
-      <c r="AX23" s="4"/>
+      <c r="AU23" s="26"/>
+      <c r="AV23" s="26"/>
+      <c r="AW23" s="1"/>
+      <c r="AX23" s="26"/>
     </row>
     <row r="24" spans="1:50">
       <c r="A24" s="1"/>
@@ -1764,45 +1769,45 @@
       <c r="H24" s="3"/>
       <c r="I24" s="1"/>
       <c r="J24" s="3"/>
-      <c r="K24" s="1"/>
+      <c r="K24" s="26"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
+      <c r="M24" s="26"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
+      <c r="W24" s="26"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
-      <c r="AD24" s="1"/>
+      <c r="AD24" s="26"/>
       <c r="AE24" s="1"/>
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
       <c r="AH24" s="1"/>
-      <c r="AI24" s="1"/>
-      <c r="AJ24" s="1"/>
-      <c r="AK24" s="1"/>
-      <c r="AL24" s="4"/>
+      <c r="AI24" s="4"/>
+      <c r="AJ24" s="4"/>
+      <c r="AK24" s="4"/>
+      <c r="AL24" s="26"/>
       <c r="AM24" s="1"/>
-      <c r="AN24" s="25"/>
-      <c r="AO24" s="4"/>
-      <c r="AP24" s="4"/>
-      <c r="AQ24" s="1"/>
-      <c r="AR24" s="4"/>
-      <c r="AS24" s="4"/>
-      <c r="AT24" s="4"/>
-      <c r="AU24" s="4"/>
-      <c r="AV24" s="4"/>
-      <c r="AW24" s="25"/>
+      <c r="AN24" s="26"/>
+      <c r="AO24" s="1"/>
+      <c r="AP24" s="1"/>
+      <c r="AQ24" s="26"/>
+      <c r="AR24" s="1"/>
+      <c r="AS24" s="26"/>
+      <c r="AT24" s="1"/>
+      <c r="AU24" s="26"/>
+      <c r="AV24" s="1"/>
+      <c r="AW24" s="1"/>
       <c r="AX24" s="1"/>
     </row>
     <row r="25" spans="1:50">
@@ -1829,36 +1834,36 @@
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
       <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
+      <c r="X25" s="26"/>
+      <c r="Y25" s="26"/>
+      <c r="Z25" s="4"/>
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
-      <c r="AE25" s="25"/>
+      <c r="AE25" s="1"/>
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
-      <c r="AH25" s="25"/>
-      <c r="AI25" s="25"/>
-      <c r="AJ25" s="1"/>
-      <c r="AK25" s="1"/>
-      <c r="AL25" s="1"/>
-      <c r="AM25" s="1"/>
-      <c r="AN25" s="25"/>
-      <c r="AO25" s="25"/>
-      <c r="AP25" s="25"/>
-      <c r="AQ25" s="4"/>
-      <c r="AR25" s="1"/>
-      <c r="AS25" s="4"/>
-      <c r="AT25" s="4"/>
-      <c r="AU25" s="1"/>
-      <c r="AV25" s="4"/>
-      <c r="AW25" s="25"/>
-      <c r="AX25" s="1"/>
+      <c r="AH25" s="1"/>
+      <c r="AI25" s="4"/>
+      <c r="AJ25" s="4"/>
+      <c r="AK25" s="4"/>
+      <c r="AL25" s="26"/>
+      <c r="AM25" s="4"/>
+      <c r="AN25" s="4"/>
+      <c r="AO25" s="4"/>
+      <c r="AP25" s="26"/>
+      <c r="AQ25" s="26"/>
+      <c r="AR25" s="26"/>
+      <c r="AS25" s="26"/>
+      <c r="AT25" s="1"/>
+      <c r="AU25" s="26"/>
+      <c r="AV25" s="26"/>
+      <c r="AW25" s="26"/>
+      <c r="AX25" s="26"/>
     </row>
     <row r="26" spans="1:50">
-      <c r="A26" s="1"/>
+      <c r="A26" s="26"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1881,7 +1886,7 @@
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
+      <c r="X26" s="26"/>
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
@@ -1892,20 +1897,20 @@
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
       <c r="AH26" s="1"/>
-      <c r="AI26" s="1"/>
-      <c r="AJ26" s="1"/>
+      <c r="AI26" s="4"/>
+      <c r="AJ26" s="4"/>
       <c r="AK26" s="1"/>
-      <c r="AL26" s="4"/>
+      <c r="AL26" s="1"/>
       <c r="AM26" s="1"/>
-      <c r="AN26" s="4"/>
+      <c r="AN26" s="26"/>
       <c r="AO26" s="1"/>
-      <c r="AP26" s="4"/>
+      <c r="AP26" s="1"/>
       <c r="AQ26" s="1"/>
-      <c r="AR26" s="4"/>
-      <c r="AS26" s="1"/>
+      <c r="AR26" s="1"/>
+      <c r="AS26" s="26"/>
       <c r="AT26" s="1"/>
-      <c r="AU26" s="4"/>
-      <c r="AV26" s="4"/>
+      <c r="AU26" s="1"/>
+      <c r="AV26" s="26"/>
       <c r="AW26" s="1"/>
       <c r="AX26" s="1"/>
     </row>
@@ -1927,7 +1932,7 @@
       <c r="O27" s="1"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
-      <c r="R27" s="4"/>
+      <c r="R27" s="1"/>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
@@ -1940,23 +1945,23 @@
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
-      <c r="AE27" s="4"/>
+      <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
       <c r="AH27" s="1"/>
       <c r="AI27" s="1"/>
-      <c r="AJ27" s="1"/>
+      <c r="AJ27" s="4"/>
       <c r="AK27" s="1"/>
-      <c r="AL27" s="1"/>
-      <c r="AM27" s="5"/>
-      <c r="AN27" s="5"/>
-      <c r="AO27" s="1"/>
+      <c r="AL27" s="26"/>
+      <c r="AM27" s="33"/>
+      <c r="AN27" s="33"/>
+      <c r="AO27" s="26"/>
       <c r="AP27" s="1"/>
       <c r="AQ27" s="1"/>
-      <c r="AR27" s="4"/>
-      <c r="AS27" s="4"/>
+      <c r="AR27" s="1"/>
+      <c r="AS27" s="1"/>
       <c r="AT27" s="1"/>
-      <c r="AU27" s="4"/>
+      <c r="AU27" s="26"/>
       <c r="AV27" s="1"/>
       <c r="AW27" s="1"/>
       <c r="AX27" s="1"/>
@@ -1979,33 +1984,33 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="4"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="1"/>
-      <c r="W28" s="4"/>
+      <c r="W28" s="26"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
-      <c r="Z28" s="1"/>
+      <c r="Z28" s="26"/>
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
-      <c r="AF28" s="41"/>
+      <c r="AF28" s="33"/>
       <c r="AG28" s="1"/>
       <c r="AH28" s="1"/>
-      <c r="AI28" s="1"/>
-      <c r="AJ28" s="1"/>
-      <c r="AK28" s="24"/>
+      <c r="AI28" s="4"/>
+      <c r="AJ28" s="4"/>
+      <c r="AK28" s="31"/>
       <c r="AL28" s="42"/>
       <c r="AM28" s="8"/>
       <c r="AN28" s="9"/>
-      <c r="AO28" s="19"/>
+      <c r="AO28" s="20"/>
       <c r="AP28" s="43"/>
-      <c r="AQ28" s="4"/>
-      <c r="AR28" s="4"/>
+      <c r="AQ28" s="26"/>
+      <c r="AR28" s="1"/>
       <c r="AS28" s="1"/>
       <c r="AT28" s="1"/>
       <c r="AU28" s="1"/>
@@ -2023,17 +2028,17 @@
       <c r="G29" s="1"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="4"/>
+      <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="4"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="1"/>
       <c r="S29" s="1"/>
-      <c r="T29" s="4"/>
+      <c r="T29" s="1"/>
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
@@ -2046,15 +2051,15 @@
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
       <c r="AF29" s="10"/>
-      <c r="AG29" s="34"/>
+      <c r="AG29" s="44"/>
       <c r="AH29" s="1"/>
       <c r="AI29" s="1"/>
-      <c r="AJ29" s="1"/>
-      <c r="AK29" s="24"/>
-      <c r="AL29" s="18"/>
-      <c r="AM29" s="12"/>
-      <c r="AN29" s="12"/>
-      <c r="AO29" s="12"/>
+      <c r="AJ29" s="4"/>
+      <c r="AK29" s="31"/>
+      <c r="AL29" s="19"/>
+      <c r="AM29" s="13"/>
+      <c r="AN29" s="13"/>
+      <c r="AO29" s="13"/>
       <c r="AP29" s="9"/>
       <c r="AQ29" s="1"/>
       <c r="AR29" s="1"/>
@@ -2071,9 +2076,9 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="44"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="45"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -2090,43 +2095,43 @@
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
-      <c r="Y30" s="33"/>
-      <c r="Z30" s="33"/>
-      <c r="AA30" s="33"/>
-      <c r="AB30" s="1"/>
+      <c r="Y30" s="37"/>
+      <c r="Z30" s="37"/>
+      <c r="AA30" s="37"/>
+      <c r="AB30" s="26"/>
       <c r="AC30" s="3"/>
       <c r="AD30" s="1"/>
-      <c r="AE30" s="24"/>
+      <c r="AE30" s="31"/>
       <c r="AF30" s="42"/>
-      <c r="AG30" s="34"/>
+      <c r="AG30" s="44"/>
       <c r="AH30" s="1"/>
       <c r="AI30" s="1"/>
-      <c r="AJ30" s="1"/>
+      <c r="AJ30" s="4"/>
       <c r="AK30" s="1"/>
-      <c r="AL30" s="14"/>
-      <c r="AM30" s="12"/>
-      <c r="AN30" s="12"/>
-      <c r="AO30" s="12"/>
-      <c r="AP30" s="19"/>
-      <c r="AQ30" s="39"/>
+      <c r="AL30" s="15"/>
+      <c r="AM30" s="13"/>
+      <c r="AN30" s="13"/>
+      <c r="AO30" s="13"/>
+      <c r="AP30" s="20"/>
+      <c r="AQ30" s="44"/>
       <c r="AR30" s="1"/>
       <c r="AS30" s="1"/>
       <c r="AT30" s="1"/>
-      <c r="AU30" s="4"/>
+      <c r="AU30" s="1"/>
       <c r="AV30" s="1"/>
-      <c r="AW30" s="4"/>
+      <c r="AW30" s="1"/>
       <c r="AX30" s="1"/>
     </row>
     <row r="31" spans="1:50">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="18"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="19"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="10"/>
-      <c r="I31" s="45"/>
+      <c r="I31" s="46"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -2137,30 +2142,30 @@
       <c r="Q31" s="3"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="4"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="26"/>
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
-      <c r="Y31" s="33"/>
-      <c r="Z31" s="33"/>
-      <c r="AA31" s="33"/>
+      <c r="Y31" s="37"/>
+      <c r="Z31" s="37"/>
+      <c r="AA31" s="37"/>
       <c r="AB31" s="1"/>
       <c r="AC31" s="3"/>
-      <c r="AD31" s="4"/>
-      <c r="AE31" s="24"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="31"/>
       <c r="AF31" s="42"/>
-      <c r="AG31" s="34"/>
+      <c r="AG31" s="44"/>
       <c r="AH31" s="1"/>
       <c r="AI31" s="1"/>
       <c r="AJ31" s="1"/>
       <c r="AK31" s="1"/>
-      <c r="AL31" s="27"/>
-      <c r="AM31" s="18"/>
-      <c r="AN31" s="12"/>
-      <c r="AO31" s="12"/>
-      <c r="AP31" s="19"/>
-      <c r="AQ31" s="34"/>
+      <c r="AL31" s="28"/>
+      <c r="AM31" s="19"/>
+      <c r="AN31" s="13"/>
+      <c r="AO31" s="13"/>
+      <c r="AP31" s="20"/>
+      <c r="AQ31" s="44"/>
       <c r="AR31" s="1"/>
       <c r="AS31" s="1"/>
       <c r="AT31" s="1"/>
@@ -2174,11 +2179,11 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="1"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="26"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="1"/>
@@ -2189,30 +2194,30 @@
       <c r="Q32" s="3"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
-      <c r="Y32" s="33"/>
-      <c r="Z32" s="33"/>
-      <c r="AA32" s="33"/>
+      <c r="Y32" s="37"/>
+      <c r="Z32" s="37"/>
+      <c r="AA32" s="37"/>
       <c r="AB32" s="3"/>
       <c r="AC32" s="3"/>
       <c r="AD32" s="3"/>
-      <c r="AE32" s="24"/>
+      <c r="AE32" s="31"/>
       <c r="AF32" s="42"/>
-      <c r="AG32" s="34"/>
+      <c r="AG32" s="44"/>
       <c r="AH32" s="1"/>
       <c r="AI32" s="1"/>
       <c r="AJ32" s="1"/>
       <c r="AK32" s="1"/>
-      <c r="AL32" s="24"/>
-      <c r="AM32" s="18"/>
-      <c r="AN32" s="12"/>
-      <c r="AO32" s="12"/>
-      <c r="AP32" s="19"/>
-      <c r="AQ32" s="34"/>
+      <c r="AL32" s="31"/>
+      <c r="AM32" s="19"/>
+      <c r="AN32" s="13"/>
+      <c r="AO32" s="13"/>
+      <c r="AP32" s="20"/>
+      <c r="AQ32" s="44"/>
       <c r="AR32" s="1"/>
       <c r="AS32" s="1"/>
       <c r="AT32" s="1"/>
@@ -2224,47 +2229,47 @@
     <row r="33" spans="1:50">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="1"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="26"/>
       <c r="K33" s="1"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="41"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="1"/>
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="33"/>
-      <c r="Z33" s="33"/>
-      <c r="AA33" s="33"/>
-      <c r="AB33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="37"/>
+      <c r="Z33" s="37"/>
+      <c r="AA33" s="37"/>
+      <c r="AB33" s="26"/>
       <c r="AC33" s="3"/>
       <c r="AD33" s="1"/>
-      <c r="AE33" s="24"/>
+      <c r="AE33" s="31"/>
       <c r="AF33" s="42"/>
-      <c r="AG33" s="34"/>
+      <c r="AG33" s="44"/>
       <c r="AH33" s="1"/>
       <c r="AI33" s="1"/>
       <c r="AJ33" s="1"/>
       <c r="AK33" s="1"/>
-      <c r="AL33" s="24"/>
-      <c r="AM33" s="21"/>
-      <c r="AN33" s="12"/>
-      <c r="AO33" s="12"/>
-      <c r="AP33" s="15"/>
-      <c r="AQ33" s="34"/>
+      <c r="AL33" s="31"/>
+      <c r="AM33" s="22"/>
+      <c r="AN33" s="13"/>
+      <c r="AO33" s="13"/>
+      <c r="AP33" s="16"/>
+      <c r="AQ33" s="44"/>
       <c r="AR33" s="1"/>
       <c r="AS33" s="1"/>
       <c r="AT33" s="1"/>
@@ -2276,46 +2281,46 @@
     <row r="34" spans="1:50">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="4"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="26"/>
       <c r="J34" s="1"/>
-      <c r="K34" s="24"/>
+      <c r="K34" s="31"/>
       <c r="L34" s="8"/>
       <c r="M34" s="10"/>
-      <c r="N34" s="34"/>
-      <c r="O34" s="4"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="1"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="4"/>
-      <c r="W34" s="4"/>
-      <c r="X34" s="4"/>
-      <c r="Y34" s="4"/>
-      <c r="Z34" s="4"/>
+      <c r="R34" s="26"/>
+      <c r="S34" s="26"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="26"/>
+      <c r="V34" s="26"/>
+      <c r="W34" s="26"/>
+      <c r="X34" s="26"/>
+      <c r="Y34" s="26"/>
+      <c r="Z34" s="26"/>
       <c r="AA34" s="3"/>
       <c r="AB34" s="3"/>
-      <c r="AC34" s="1"/>
+      <c r="AC34" s="26"/>
       <c r="AD34" s="3"/>
-      <c r="AE34" s="24"/>
+      <c r="AE34" s="31"/>
       <c r="AF34" s="42"/>
-      <c r="AG34" s="34"/>
+      <c r="AG34" s="41"/>
       <c r="AH34" s="1"/>
       <c r="AI34" s="1"/>
       <c r="AJ34" s="1"/>
       <c r="AK34" s="1"/>
       <c r="AL34" s="1"/>
-      <c r="AM34" s="27"/>
-      <c r="AN34" s="21"/>
-      <c r="AO34" s="15"/>
-      <c r="AP34" s="31"/>
+      <c r="AM34" s="28"/>
+      <c r="AN34" s="22"/>
+      <c r="AO34" s="16"/>
+      <c r="AP34" s="48"/>
       <c r="AQ34" s="1"/>
       <c r="AR34" s="1"/>
       <c r="AS34" s="1"/>
@@ -2328,45 +2333,45 @@
     <row r="35" spans="1:50">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="34"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="44"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="39"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="44"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="3"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="1"/>
-      <c r="W35" s="4"/>
-      <c r="X35" s="1"/>
-      <c r="Y35" s="1"/>
+      <c r="R35" s="26"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="26"/>
+      <c r="W35" s="26"/>
+      <c r="X35" s="26"/>
+      <c r="Y35" s="26"/>
       <c r="Z35" s="3"/>
       <c r="AA35" s="3"/>
       <c r="AB35" s="3"/>
       <c r="AC35" s="3"/>
-      <c r="AD35" s="1"/>
-      <c r="AE35" s="46"/>
+      <c r="AD35" s="26"/>
+      <c r="AE35" s="50"/>
       <c r="AF35" s="42"/>
-      <c r="AG35" s="34"/>
-      <c r="AH35" s="1"/>
+      <c r="AG35" s="41"/>
+      <c r="AH35" s="26"/>
       <c r="AI35" s="1"/>
       <c r="AJ35" s="1"/>
       <c r="AK35" s="1"/>
       <c r="AL35" s="1"/>
       <c r="AM35" s="1"/>
-      <c r="AN35" s="26"/>
-      <c r="AO35" s="26"/>
+      <c r="AN35" s="27"/>
+      <c r="AO35" s="27"/>
       <c r="AP35" s="1"/>
       <c r="AQ35" s="1"/>
       <c r="AR35" s="1"/>
@@ -2381,48 +2386,48 @@
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="D36" s="26"/>
       <c r="E36" s="1"/>
       <c r="F36" s="40"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
       <c r="J36" s="1"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="34"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="41"/>
       <c r="O36" s="1"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
-      <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
-      <c r="W36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="26"/>
       <c r="X36" s="1"/>
-      <c r="Y36" s="1"/>
+      <c r="Y36" s="26"/>
       <c r="Z36" s="1"/>
       <c r="AA36" s="3"/>
       <c r="AB36" s="3"/>
       <c r="AC36" s="3"/>
       <c r="AD36" s="3"/>
-      <c r="AE36" s="1"/>
-      <c r="AF36" s="1"/>
-      <c r="AG36" s="1"/>
-      <c r="AH36" s="1"/>
-      <c r="AI36" s="1"/>
+      <c r="AE36" s="26"/>
+      <c r="AF36" s="26"/>
+      <c r="AG36" s="26"/>
+      <c r="AH36" s="26"/>
+      <c r="AI36" s="26"/>
       <c r="AJ36" s="1"/>
       <c r="AK36" s="1"/>
       <c r="AL36" s="1"/>
       <c r="AM36" s="1"/>
       <c r="AN36" s="1"/>
-      <c r="AO36" s="5"/>
-      <c r="AP36" s="5"/>
-      <c r="AQ36" s="5"/>
+      <c r="AO36" s="33"/>
+      <c r="AP36" s="33"/>
+      <c r="AQ36" s="33"/>
       <c r="AR36" s="1"/>
-      <c r="AS36" s="1"/>
+      <c r="AS36" s="26"/>
       <c r="AT36" s="1"/>
       <c r="AU36" s="1"/>
       <c r="AV36" s="1"/>
@@ -2434,46 +2439,46 @@
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="4"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="1"/>
       <c r="O37" s="1"/>
-      <c r="P37" s="4"/>
+      <c r="P37" s="1"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
       <c r="U37" s="1"/>
       <c r="V37" s="3"/>
-      <c r="W37" s="4"/>
-      <c r="X37" s="1"/>
-      <c r="Y37" s="1"/>
-      <c r="Z37" s="4"/>
-      <c r="AA37" s="1"/>
+      <c r="W37" s="26"/>
+      <c r="X37" s="26"/>
+      <c r="Y37" s="26"/>
+      <c r="Z37" s="26"/>
+      <c r="AA37" s="26"/>
       <c r="AB37" s="3"/>
       <c r="AC37" s="3"/>
       <c r="AD37" s="3"/>
-      <c r="AE37" s="1"/>
-      <c r="AF37" s="1"/>
-      <c r="AG37" s="5"/>
-      <c r="AH37" s="5"/>
-      <c r="AI37" s="5"/>
-      <c r="AJ37" s="5"/>
+      <c r="AE37" s="26"/>
+      <c r="AF37" s="26"/>
+      <c r="AG37" s="51"/>
+      <c r="AH37" s="51"/>
+      <c r="AI37" s="33"/>
+      <c r="AJ37" s="33"/>
       <c r="AK37" s="1"/>
       <c r="AL37" s="1"/>
       <c r="AM37" s="1"/>
-      <c r="AN37" s="24"/>
+      <c r="AN37" s="31"/>
       <c r="AO37" s="8"/>
       <c r="AP37" s="9"/>
       <c r="AQ37" s="10"/>
-      <c r="AR37" s="34"/>
+      <c r="AR37" s="44"/>
       <c r="AS37" s="1"/>
       <c r="AT37" s="1"/>
       <c r="AU37" s="1"/>
@@ -2487,16 +2492,16 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="41"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="3"/>
@@ -2505,31 +2510,31 @@
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
-      <c r="X38" s="4"/>
-      <c r="Y38" s="1"/>
-      <c r="Z38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="26"/>
+      <c r="Z38" s="26"/>
       <c r="AA38" s="1"/>
       <c r="AB38" s="3"/>
       <c r="AC38" s="3"/>
-      <c r="AD38" s="1"/>
+      <c r="AD38" s="26"/>
       <c r="AE38" s="3"/>
-      <c r="AF38" s="24"/>
+      <c r="AF38" s="31"/>
       <c r="AG38" s="8"/>
       <c r="AH38" s="9"/>
       <c r="AI38" s="9"/>
       <c r="AJ38" s="10"/>
-      <c r="AK38" s="34"/>
+      <c r="AK38" s="44"/>
       <c r="AL38" s="1"/>
       <c r="AM38" s="3"/>
-      <c r="AN38" s="24"/>
-      <c r="AO38" s="21"/>
-      <c r="AP38" s="14"/>
-      <c r="AQ38" s="19"/>
-      <c r="AR38" s="34"/>
+      <c r="AN38" s="31"/>
+      <c r="AO38" s="22"/>
+      <c r="AP38" s="15"/>
+      <c r="AQ38" s="20"/>
+      <c r="AR38" s="44"/>
       <c r="AS38" s="1"/>
       <c r="AT38" s="1"/>
       <c r="AU38" s="1"/>
-      <c r="AV38" s="1"/>
+      <c r="AV38" s="26"/>
       <c r="AW38" s="1"/>
       <c r="AX38" s="1"/>
     </row>
@@ -2538,7 +2543,7 @@
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="24"/>
+      <c r="E39" s="31"/>
       <c r="F39" s="8"/>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
@@ -2547,35 +2552,35 @@
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
       <c r="M39" s="10"/>
-      <c r="N39" s="34"/>
+      <c r="N39" s="44"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
-      <c r="S39" s="4"/>
+      <c r="S39" s="1"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-      <c r="Y39" s="1"/>
-      <c r="Z39" s="1"/>
-      <c r="AA39" s="1"/>
+      <c r="Y39" s="26"/>
+      <c r="Z39" s="26"/>
+      <c r="AA39" s="26"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-      <c r="AF39" s="24"/>
-      <c r="AG39" s="21"/>
-      <c r="AH39" s="14"/>
-      <c r="AI39" s="14"/>
-      <c r="AJ39" s="14"/>
-      <c r="AK39" s="1"/>
+      <c r="AF39" s="49"/>
+      <c r="AG39" s="22"/>
+      <c r="AH39" s="15"/>
+      <c r="AI39" s="15"/>
+      <c r="AJ39" s="15"/>
+      <c r="AK39" s="26"/>
       <c r="AL39" s="3"/>
       <c r="AM39" s="3"/>
       <c r="AN39" s="3"/>
-      <c r="AO39" s="47"/>
-      <c r="AP39" s="26"/>
+      <c r="AO39" s="52"/>
+      <c r="AP39" s="27"/>
       <c r="AQ39" s="1"/>
       <c r="AR39" s="3"/>
       <c r="AS39" s="3"/>
@@ -2589,20 +2594,20 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="19"/>
-      <c r="N40" s="34"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="44"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
-      <c r="Q40" s="4"/>
+      <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
@@ -2610,7 +2615,7 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-      <c r="Y40" s="1"/>
+      <c r="Y40" s="26"/>
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
       <c r="AB40" s="3"/>
@@ -2618,18 +2623,18 @@
       <c r="AD40" s="1"/>
       <c r="AE40" s="3"/>
       <c r="AF40" s="3"/>
-      <c r="AG40" s="47"/>
-      <c r="AH40" s="47"/>
-      <c r="AI40" s="26"/>
-      <c r="AJ40" s="26"/>
-      <c r="AK40" s="1"/>
+      <c r="AG40" s="52"/>
+      <c r="AH40" s="52"/>
+      <c r="AI40" s="40"/>
+      <c r="AJ40" s="40"/>
+      <c r="AK40" s="26"/>
       <c r="AL40" s="3"/>
       <c r="AM40" s="3"/>
       <c r="AN40" s="3"/>
       <c r="AO40" s="3"/>
-      <c r="AP40" s="33"/>
-      <c r="AQ40" s="33"/>
-      <c r="AR40" s="33"/>
+      <c r="AP40" s="37"/>
+      <c r="AQ40" s="37"/>
+      <c r="AR40" s="37"/>
       <c r="AS40" s="3"/>
       <c r="AT40" s="3"/>
       <c r="AU40" s="3"/>
@@ -2643,15 +2648,15 @@
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="34"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="44"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
@@ -2664,14 +2669,14 @@
       <c r="X41" s="3"/>
       <c r="Y41" s="3"/>
       <c r="Z41" s="3"/>
-      <c r="AA41" s="1"/>
+      <c r="AA41" s="26"/>
       <c r="AB41" s="3"/>
       <c r="AC41" s="3"/>
       <c r="AD41" s="3"/>
-      <c r="AE41" s="1"/>
+      <c r="AE41" s="26"/>
       <c r="AF41" s="3"/>
       <c r="AG41" s="3"/>
-      <c r="AH41" s="1"/>
+      <c r="AH41" s="26"/>
       <c r="AI41" s="3"/>
       <c r="AJ41" s="3"/>
       <c r="AK41" s="3"/>
@@ -2679,8 +2684,8 @@
       <c r="AM41" s="1"/>
       <c r="AN41" s="1"/>
       <c r="AO41" s="1"/>
-      <c r="AP41" s="33"/>
-      <c r="AQ41" s="33"/>
+      <c r="AP41" s="37"/>
+      <c r="AQ41" s="37"/>
       <c r="AR41" s="3"/>
       <c r="AS41" s="1"/>
       <c r="AT41" s="1"/>
@@ -2693,22 +2698,22 @@
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="34"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="44"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
-      <c r="S42" s="4"/>
+      <c r="S42" s="1"/>
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
@@ -2720,11 +2725,11 @@
       <c r="AB42" s="3"/>
       <c r="AC42" s="3"/>
       <c r="AD42" s="3"/>
-      <c r="AE42" s="1"/>
+      <c r="AE42" s="26"/>
       <c r="AF42" s="3"/>
       <c r="AG42" s="3"/>
       <c r="AH42" s="3"/>
-      <c r="AI42" s="1"/>
+      <c r="AI42" s="26"/>
       <c r="AJ42" s="3"/>
       <c r="AK42" s="3"/>
       <c r="AL42" s="3"/>
@@ -2732,7 +2737,7 @@
       <c r="AN42" s="1"/>
       <c r="AO42" s="3"/>
       <c r="AP42" s="3"/>
-      <c r="AQ42" s="33"/>
+      <c r="AQ42" s="37"/>
       <c r="AR42" s="3"/>
       <c r="AS42" s="3"/>
       <c r="AT42" s="3"/>
@@ -2747,14 +2752,14 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="26"/>
-      <c r="L43" s="26"/>
-      <c r="M43" s="26"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="27"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
@@ -2842,7 +2847,7 @@
       <c r="AT44" s="1"/>
       <c r="AU44" s="3"/>
       <c r="AV44" s="3"/>
-      <c r="AW44" s="1"/>
+      <c r="AW44" s="26"/>
       <c r="AX44" s="1"/>
     </row>
     <row r="45" spans="1:50">
@@ -2943,7 +2948,7 @@
       <c r="AQ46" s="1"/>
       <c r="AR46" s="1"/>
       <c r="AS46" s="1"/>
-      <c r="AT46" s="1"/>
+      <c r="AT46" s="26"/>
       <c r="AU46" s="1"/>
       <c r="AV46" s="1"/>
       <c r="AW46" s="1"/>
@@ -3031,14 +3036,14 @@
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
       <c r="AC48" s="1"/>
-      <c r="AD48" s="5"/>
+      <c r="AD48" s="33"/>
       <c r="AE48" s="1"/>
-      <c r="AF48" s="5"/>
-      <c r="AG48" s="5"/>
-      <c r="AH48" s="5"/>
-      <c r="AI48" s="5"/>
-      <c r="AJ48" s="5"/>
-      <c r="AK48" s="5"/>
+      <c r="AF48" s="33"/>
+      <c r="AG48" s="33"/>
+      <c r="AH48" s="33"/>
+      <c r="AI48" s="33"/>
+      <c r="AJ48" s="33"/>
+      <c r="AK48" s="33"/>
       <c r="AL48" s="1"/>
       <c r="AM48" s="1"/>
       <c r="AN48" s="1"/>
@@ -3061,7 +3066,7 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
+      <c r="H49" s="26"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -3082,16 +3087,16 @@
       <c r="Z49" s="1"/>
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
-      <c r="AC49" s="24"/>
+      <c r="AC49" s="31"/>
       <c r="AD49" s="8"/>
-      <c r="AE49" s="12"/>
+      <c r="AE49" s="13"/>
       <c r="AF49" s="9"/>
       <c r="AG49" s="9"/>
       <c r="AH49" s="9"/>
       <c r="AI49" s="9"/>
       <c r="AJ49" s="9"/>
       <c r="AK49" s="10"/>
-      <c r="AL49" s="34"/>
+      <c r="AL49" s="44"/>
       <c r="AM49" s="1"/>
       <c r="AN49" s="1"/>
       <c r="AO49" s="1"/>
@@ -3134,16 +3139,16 @@
       <c r="Z50" s="1"/>
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
-      <c r="AC50" s="24"/>
-      <c r="AD50" s="18"/>
-      <c r="AE50" s="12"/>
-      <c r="AF50" s="12"/>
-      <c r="AG50" s="12"/>
-      <c r="AH50" s="12"/>
-      <c r="AI50" s="12"/>
-      <c r="AJ50" s="12"/>
-      <c r="AK50" s="19"/>
-      <c r="AL50" s="34"/>
+      <c r="AC50" s="49"/>
+      <c r="AD50" s="19"/>
+      <c r="AE50" s="13"/>
+      <c r="AF50" s="13"/>
+      <c r="AG50" s="13"/>
+      <c r="AH50" s="13"/>
+      <c r="AI50" s="13"/>
+      <c r="AJ50" s="13"/>
+      <c r="AK50" s="20"/>
+      <c r="AL50" s="44"/>
       <c r="AM50" s="1"/>
       <c r="AN50" s="1"/>
       <c r="AO50" s="1"/>
@@ -3151,7 +3156,7 @@
       <c r="AQ50" s="1"/>
       <c r="AR50" s="1"/>
       <c r="AS50" s="1"/>
-      <c r="AT50" s="1"/>
+      <c r="AT50" s="26"/>
       <c r="AU50" s="1"/>
       <c r="AV50" s="1"/>
       <c r="AW50" s="1"/>

--- a/game_map_1.xlsx
+++ b/game_map_1.xlsx
@@ -56,7 +56,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFFD700"/>
+      <color rgb="FFCCFF00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>

--- a/game_map_1.xlsx
+++ b/game_map_1.xlsx
@@ -1192,9 +1192,9 @@
     <row r="6" spans="1:50">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="26"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="25"/>
       <c r="F6" s="39" t="s">
         <v>0</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="G8" s="10"/>
       <c r="H8" s="18"/>
       <c r="I8" s="31"/>
       <c r="J8" s="25"/>
@@ -1366,7 +1366,7 @@
       <c r="D9" s="20"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
-      <c r="G9" s="10"/>
+      <c r="G9" s="21"/>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
       <c r="J9" s="31"/>
@@ -1418,7 +1418,7 @@
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
       <c r="F10" s="29"/>
-      <c r="G10" s="2"/>
+      <c r="G10" s="29"/>
       <c r="H10" s="29"/>
       <c r="I10" s="29"/>
       <c r="J10" s="29"/>
